--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>ro</t>
+    <t>ro (Romanian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1892">
   <si>
     <t>en</t>
   </si>
@@ -1532,6 +1532,12 @@
   </si>
   <si>
     <t>Exploziv</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Ochi</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6033,7 +6039,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8579,12 +8585,12 @@
         <v>509</v>
       </c>
       <c r="B317" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B318" t="s">
         <v>511</v>
@@ -8595,12 +8601,12 @@
         <v>512</v>
       </c>
       <c r="B319" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B320" t="s">
         <v>514</v>
@@ -8627,28 +8633,28 @@
         <v>519</v>
       </c>
       <c r="B323" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B324" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B325" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B326" t="s">
         <v>523</v>
@@ -8667,12 +8673,12 @@
         <v>526</v>
       </c>
       <c r="B328" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B329" t="s">
         <v>528</v>
@@ -8683,12 +8689,12 @@
         <v>529</v>
       </c>
       <c r="B330" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B331" t="s">
         <v>531</v>
@@ -8755,12 +8761,12 @@
         <v>546</v>
       </c>
       <c r="B339" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B340" t="s">
         <v>548</v>
@@ -8915,12 +8921,12 @@
         <v>585</v>
       </c>
       <c r="B359" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B360" t="s">
         <v>587</v>
@@ -8947,12 +8953,12 @@
         <v>592</v>
       </c>
       <c r="B363" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B364" t="s">
         <v>594</v>
@@ -9027,12 +9033,12 @@
         <v>611</v>
       </c>
       <c r="B373" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B374" t="s">
         <v>613</v>
@@ -9051,28 +9057,28 @@
         <v>616</v>
       </c>
       <c r="B376" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B377" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B378" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B379" t="s">
         <v>620</v>
@@ -9091,52 +9097,52 @@
         <v>623</v>
       </c>
       <c r="B381" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B382" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B383" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B384" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B385" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B386" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B387" t="s">
         <v>630</v>
@@ -9163,12 +9169,12 @@
         <v>635</v>
       </c>
       <c r="B390" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B391" t="s">
         <v>637</v>
@@ -9187,20 +9193,20 @@
         <v>640</v>
       </c>
       <c r="B393" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B394" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B395" t="s">
         <v>643</v>
@@ -9219,28 +9225,28 @@
         <v>646</v>
       </c>
       <c r="B397" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B398" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B399" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B400" t="s">
         <v>650</v>
@@ -9251,36 +9257,36 @@
         <v>651</v>
       </c>
       <c r="B401" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B402" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B403" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B404" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B405" t="s">
         <v>656</v>
@@ -9299,20 +9305,20 @@
         <v>659</v>
       </c>
       <c r="B407" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B408" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B409" t="s">
         <v>662</v>
@@ -9331,12 +9337,12 @@
         <v>665</v>
       </c>
       <c r="B411" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B412" t="s">
         <v>667</v>
@@ -9355,20 +9361,20 @@
         <v>670</v>
       </c>
       <c r="B414" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B415" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B416" t="s">
         <v>673</v>
@@ -9387,20 +9393,20 @@
         <v>676</v>
       </c>
       <c r="B418" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B419" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B420" t="s">
         <v>679</v>
@@ -9411,12 +9417,12 @@
         <v>680</v>
       </c>
       <c r="B421" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B422" t="s">
         <v>682</v>
@@ -9483,12 +9489,12 @@
         <v>697</v>
       </c>
       <c r="B430" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B431" t="s">
         <v>699</v>
@@ -9507,12 +9513,12 @@
         <v>702</v>
       </c>
       <c r="B433" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B434" t="s">
         <v>704</v>
@@ -9603,12 +9609,12 @@
         <v>725</v>
       </c>
       <c r="B445" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B446" t="s">
         <v>727</v>
@@ -9619,12 +9625,12 @@
         <v>728</v>
       </c>
       <c r="B447" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B448" t="s">
         <v>730</v>
@@ -9635,12 +9641,12 @@
         <v>731</v>
       </c>
       <c r="B449" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B450" t="s">
         <v>733</v>
@@ -9659,12 +9665,12 @@
         <v>736</v>
       </c>
       <c r="B452" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B453" t="s">
         <v>738</v>
@@ -9739,12 +9745,12 @@
         <v>755</v>
       </c>
       <c r="B462" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B463" t="s">
         <v>757</v>
@@ -9755,20 +9761,20 @@
         <v>758</v>
       </c>
       <c r="B464" t="s">
-        <v>508</v>
+        <v>759</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B465" t="s">
-        <v>759</v>
+        <v>510</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B466" t="s">
         <v>761</v>
@@ -9787,28 +9793,28 @@
         <v>764</v>
       </c>
       <c r="B468" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B469" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B470" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B471" t="s">
         <v>768</v>
@@ -9819,20 +9825,20 @@
         <v>769</v>
       </c>
       <c r="B472" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B473" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B474" t="s">
         <v>772</v>
@@ -9843,12 +9849,12 @@
         <v>773</v>
       </c>
       <c r="B475" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B476" t="s">
         <v>775</v>
@@ -9867,12 +9873,12 @@
         <v>778</v>
       </c>
       <c r="B478" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B479" t="s">
         <v>780</v>
@@ -9883,12 +9889,12 @@
         <v>781</v>
       </c>
       <c r="B480" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B481" t="s">
         <v>783</v>
@@ -9907,12 +9913,12 @@
         <v>786</v>
       </c>
       <c r="B483" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B484" t="s">
         <v>788</v>
@@ -9923,36 +9929,36 @@
         <v>789</v>
       </c>
       <c r="B485" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B486" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B487" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B488" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B489" t="s">
         <v>794</v>
@@ -10107,20 +10113,20 @@
         <v>831</v>
       </c>
       <c r="B508" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B509" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B510" t="s">
         <v>834</v>
@@ -10131,12 +10137,12 @@
         <v>835</v>
       </c>
       <c r="B511" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B512" t="s">
         <v>837</v>
@@ -10147,12 +10153,12 @@
         <v>838</v>
       </c>
       <c r="B513" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B514" t="s">
         <v>840</v>
@@ -10187,12 +10193,12 @@
         <v>847</v>
       </c>
       <c r="B518" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B519" t="s">
         <v>849</v>
@@ -10267,15 +10273,15 @@
         <v>866</v>
       </c>
       <c r="B528" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>868</v>
+      </c>
+      <c r="B529" t="s">
         <v>867</v>
-      </c>
-      <c r="B529" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10283,12 +10289,12 @@
         <v>869</v>
       </c>
       <c r="B530" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B531" t="s">
         <v>871</v>
@@ -10307,20 +10313,20 @@
         <v>874</v>
       </c>
       <c r="B533" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B535" t="s">
         <v>877</v>
@@ -10339,12 +10345,12 @@
         <v>880</v>
       </c>
       <c r="B537" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B538" t="s">
         <v>882</v>
@@ -10355,12 +10361,12 @@
         <v>883</v>
       </c>
       <c r="B539" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B540" t="s">
         <v>885</v>
@@ -10395,20 +10401,20 @@
         <v>892</v>
       </c>
       <c r="B544" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B545" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B546" t="s">
         <v>895</v>
@@ -10419,28 +10425,28 @@
         <v>896</v>
       </c>
       <c r="B547" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B548" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B549" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B550" t="s">
         <v>900</v>
@@ -10467,20 +10473,20 @@
         <v>905</v>
       </c>
       <c r="B553" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B554" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B555" t="s">
         <v>908</v>
@@ -10531,28 +10537,28 @@
         <v>919</v>
       </c>
       <c r="B561" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B562" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B563" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B564" t="s">
         <v>923</v>
@@ -10595,12 +10601,12 @@
         <v>932</v>
       </c>
       <c r="B569" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B570" t="s">
         <v>934</v>
@@ -10627,44 +10633,44 @@
         <v>939</v>
       </c>
       <c r="B573" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B574" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B575" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B576" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B577" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B578" t="s">
         <v>945</v>
@@ -10683,12 +10689,12 @@
         <v>948</v>
       </c>
       <c r="B580" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B581" t="s">
         <v>950</v>
@@ -10699,20 +10705,20 @@
         <v>951</v>
       </c>
       <c r="B582" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B583" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B584" t="s">
         <v>954</v>
@@ -10723,28 +10729,28 @@
         <v>955</v>
       </c>
       <c r="B585" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B586" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B587" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B588" t="s">
         <v>959</v>
@@ -10755,12 +10761,12 @@
         <v>960</v>
       </c>
       <c r="B589" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B590" t="s">
         <v>962</v>
@@ -10771,12 +10777,12 @@
         <v>963</v>
       </c>
       <c r="B591" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B592" t="s">
         <v>965</v>
@@ -10843,20 +10849,20 @@
         <v>980</v>
       </c>
       <c r="B600" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B601" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B602" t="s">
         <v>983</v>
@@ -10867,12 +10873,12 @@
         <v>984</v>
       </c>
       <c r="B603" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B604" t="s">
         <v>986</v>
@@ -10915,28 +10921,28 @@
         <v>995</v>
       </c>
       <c r="B609" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B610" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B611" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B612" t="s">
         <v>999</v>
@@ -10947,12 +10953,12 @@
         <v>1000</v>
       </c>
       <c r="B613" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B614" t="s">
         <v>1002</v>
@@ -11003,12 +11009,12 @@
         <v>1013</v>
       </c>
       <c r="B620" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B621" t="s">
         <v>1015</v>
@@ -11019,28 +11025,28 @@
         <v>1016</v>
       </c>
       <c r="B622" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B623" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B624" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B625" t="s">
         <v>1020</v>
@@ -11059,36 +11065,36 @@
         <v>1023</v>
       </c>
       <c r="B627" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B631" t="s">
         <v>1028</v>
@@ -11099,52 +11105,52 @@
         <v>1029</v>
       </c>
       <c r="B632" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B634" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B635" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B636" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B637" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B638" t="s">
         <v>1036</v>
@@ -11155,36 +11161,36 @@
         <v>1037</v>
       </c>
       <c r="B639" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B640" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B641" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B642" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B643" t="s">
         <v>1042</v>
@@ -11219,28 +11225,28 @@
         <v>1049</v>
       </c>
       <c r="B647" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B648" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B649" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B650" t="s">
         <v>1053</v>
@@ -11251,12 +11257,12 @@
         <v>1054</v>
       </c>
       <c r="B651" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B652" t="s">
         <v>1056</v>
@@ -11283,12 +11289,12 @@
         <v>1061</v>
       </c>
       <c r="B655" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B656" t="s">
         <v>1063</v>
@@ -11347,28 +11353,28 @@
         <v>1076</v>
       </c>
       <c r="B663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B666" t="s">
         <v>1080</v>
@@ -11379,12 +11385,12 @@
         <v>1081</v>
       </c>
       <c r="B667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B668" t="s">
         <v>1083</v>
@@ -11403,12 +11409,12 @@
         <v>1086</v>
       </c>
       <c r="B670" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B671" t="s">
         <v>1088</v>
@@ -11427,12 +11433,12 @@
         <v>1091</v>
       </c>
       <c r="B673" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B674" t="s">
         <v>1093</v>
@@ -11451,12 +11457,12 @@
         <v>1096</v>
       </c>
       <c r="B676" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B677" t="s">
         <v>1098</v>
@@ -11483,20 +11489,20 @@
         <v>1103</v>
       </c>
       <c r="B680" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B681" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B682" t="s">
         <v>1106</v>
@@ -11555,12 +11561,12 @@
         <v>1119</v>
       </c>
       <c r="B689" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B690" t="s">
         <v>1121</v>
@@ -11579,12 +11585,12 @@
         <v>1124</v>
       </c>
       <c r="B692" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B693" t="s">
         <v>1126</v>
@@ -11627,12 +11633,12 @@
         <v>1135</v>
       </c>
       <c r="B698" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B699" t="s">
         <v>1137</v>
@@ -11643,20 +11649,20 @@
         <v>1138</v>
       </c>
       <c r="B700" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B701" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B702" t="s">
         <v>1141</v>
@@ -11667,60 +11673,60 @@
         <v>1142</v>
       </c>
       <c r="B703" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B704" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B705" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B706" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B707" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B708" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B709" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B710" t="s">
         <v>1150</v>
@@ -11731,12 +11737,12 @@
         <v>1151</v>
       </c>
       <c r="B711" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B712" t="s">
         <v>1153</v>
@@ -11747,12 +11753,12 @@
         <v>1154</v>
       </c>
       <c r="B713" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B714" t="s">
         <v>1156</v>
@@ -11819,20 +11825,20 @@
         <v>1171</v>
       </c>
       <c r="B722" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B723" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B724" t="s">
         <v>1174</v>
@@ -11851,12 +11857,12 @@
         <v>1177</v>
       </c>
       <c r="B726" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B727" t="s">
         <v>1179</v>
@@ -11875,12 +11881,12 @@
         <v>1182</v>
       </c>
       <c r="B729" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B730" t="s">
         <v>1184</v>
@@ -11907,68 +11913,68 @@
         <v>1189</v>
       </c>
       <c r="B733" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B734" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B735" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B736" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B737" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B738" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B739" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B740" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B741" t="s">
         <v>1198</v>
@@ -11979,36 +11985,36 @@
         <v>1199</v>
       </c>
       <c r="B742" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B746" t="s">
         <v>1204</v>
@@ -12099,36 +12105,36 @@
         <v>1225</v>
       </c>
       <c r="B757" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B758" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B759" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B760" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B761" t="s">
         <v>1230</v>
@@ -12171,12 +12177,12 @@
         <v>1239</v>
       </c>
       <c r="B766" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B767" t="s">
         <v>1241</v>
@@ -12211,12 +12217,12 @@
         <v>1248</v>
       </c>
       <c r="B771" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B772" t="s">
         <v>1250</v>
@@ -12275,36 +12281,36 @@
         <v>1263</v>
       </c>
       <c r="B779" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B780" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B781" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B782" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B783" t="s">
         <v>1268</v>
@@ -12323,12 +12329,12 @@
         <v>1271</v>
       </c>
       <c r="B785" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B786" t="s">
         <v>1273</v>
@@ -12339,20 +12345,20 @@
         <v>1274</v>
       </c>
       <c r="B787" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B788" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B789" t="s">
         <v>1277</v>
@@ -12363,36 +12369,36 @@
         <v>1278</v>
       </c>
       <c r="B790" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B791" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B792" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B793" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B794" t="s">
         <v>1283</v>
@@ -12403,20 +12409,20 @@
         <v>1284</v>
       </c>
       <c r="B795" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B796" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B797" t="s">
         <v>1287</v>
@@ -12475,28 +12481,28 @@
         <v>1300</v>
       </c>
       <c r="B804" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B805" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B806" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B807" t="s">
         <v>1304</v>
@@ -12571,12 +12577,12 @@
         <v>1321</v>
       </c>
       <c r="B816" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B817" t="s">
         <v>1323</v>
@@ -12603,12 +12609,12 @@
         <v>1328</v>
       </c>
       <c r="B820" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B821" t="s">
         <v>1330</v>
@@ -12619,12 +12625,12 @@
         <v>1331</v>
       </c>
       <c r="B822" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B823" t="s">
         <v>1333</v>
@@ -12635,28 +12641,28 @@
         <v>1334</v>
       </c>
       <c r="B824" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B825" t="s">
-        <v>746</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B826" t="s">
-        <v>1336</v>
+        <v>748</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B827" t="s">
         <v>1338</v>
@@ -12667,36 +12673,36 @@
         <v>1339</v>
       </c>
       <c r="B828" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B829" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B830" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B831" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B832" t="s">
         <v>1344</v>
@@ -12715,12 +12721,12 @@
         <v>1347</v>
       </c>
       <c r="B834" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B835" t="s">
         <v>1349</v>
@@ -12763,28 +12769,28 @@
         <v>1358</v>
       </c>
       <c r="B840" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B841" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B842" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B843" t="s">
         <v>1362</v>
@@ -12891,20 +12897,20 @@
         <v>1387</v>
       </c>
       <c r="B856" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B857" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B858" t="s">
         <v>1390</v>
@@ -12915,36 +12921,36 @@
         <v>1391</v>
       </c>
       <c r="B859" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B860" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B861" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B862" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B863" t="s">
         <v>1396</v>
@@ -12955,12 +12961,12 @@
         <v>1397</v>
       </c>
       <c r="B864" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B865" t="s">
         <v>1399</v>
@@ -12971,12 +12977,12 @@
         <v>1400</v>
       </c>
       <c r="B866" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B867" t="s">
         <v>1402</v>
@@ -12995,12 +13001,12 @@
         <v>1405</v>
       </c>
       <c r="B869" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B870" t="s">
         <v>1407</v>
@@ -13011,12 +13017,12 @@
         <v>1408</v>
       </c>
       <c r="B871" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B872" t="s">
         <v>1410</v>
@@ -13043,20 +13049,20 @@
         <v>1415</v>
       </c>
       <c r="B875" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B876" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B877" t="s">
         <v>1418</v>
@@ -13083,20 +13089,20 @@
         <v>1423</v>
       </c>
       <c r="B880" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B881" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B882" t="s">
         <v>1426</v>
@@ -13107,12 +13113,12 @@
         <v>1427</v>
       </c>
       <c r="B883" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B884" t="s">
         <v>1429</v>
@@ -13123,12 +13129,12 @@
         <v>1430</v>
       </c>
       <c r="B885" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B886" t="s">
         <v>1432</v>
@@ -13139,12 +13145,12 @@
         <v>1433</v>
       </c>
       <c r="B887" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B888" t="s">
         <v>1435</v>
@@ -13155,12 +13161,12 @@
         <v>1436</v>
       </c>
       <c r="B889" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B890" t="s">
         <v>1438</v>
@@ -13187,20 +13193,20 @@
         <v>1443</v>
       </c>
       <c r="B893" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B894" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B895" t="s">
         <v>1446</v>
@@ -13251,60 +13257,60 @@
         <v>1457</v>
       </c>
       <c r="B901" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B902" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B903" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B904" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B905" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B906" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B907" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B908" t="s">
         <v>1465</v>
@@ -13331,28 +13337,28 @@
         <v>1470</v>
       </c>
       <c r="B911" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B912" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B913" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B914" t="s">
         <v>1474</v>
@@ -13395,20 +13401,20 @@
         <v>1483</v>
       </c>
       <c r="B919" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B920" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B921" t="s">
         <v>1486</v>
@@ -13443,12 +13449,12 @@
         <v>1493</v>
       </c>
       <c r="B925" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B926" t="s">
         <v>1495</v>
@@ -13467,20 +13473,20 @@
         <v>1498</v>
       </c>
       <c r="B928" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B929" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B930" t="s">
         <v>1501</v>
@@ -13539,28 +13545,28 @@
         <v>1514</v>
       </c>
       <c r="B937" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B938" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B939" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B940" t="s">
         <v>1518</v>
@@ -13579,52 +13585,52 @@
         <v>1521</v>
       </c>
       <c r="B942" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B943" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B944" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B945" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B946" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B947" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B948" t="s">
         <v>1528</v>
@@ -13659,20 +13665,20 @@
         <v>1535</v>
       </c>
       <c r="B952" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B953" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B954" t="s">
         <v>1538</v>
@@ -13723,28 +13729,28 @@
         <v>1549</v>
       </c>
       <c r="B960" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B961" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B962" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B963" t="s">
         <v>1553</v>
@@ -13803,12 +13809,12 @@
         <v>1566</v>
       </c>
       <c r="B970" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B971" t="s">
         <v>1568</v>
@@ -13843,20 +13849,20 @@
         <v>1575</v>
       </c>
       <c r="B975" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B976" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B977" t="s">
         <v>1578</v>
@@ -13875,36 +13881,36 @@
         <v>1581</v>
       </c>
       <c r="B979" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B980" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B981" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B982" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B983" t="s">
         <v>1586</v>
@@ -13915,20 +13921,20 @@
         <v>1587</v>
       </c>
       <c r="B984" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B985" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B986" t="s">
         <v>1590</v>
@@ -13955,12 +13961,12 @@
         <v>1595</v>
       </c>
       <c r="B989" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B990" t="s">
         <v>1597</v>
@@ -13979,28 +13985,28 @@
         <v>1600</v>
       </c>
       <c r="B992" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B993" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B994" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B995" t="s">
         <v>1604</v>
@@ -14035,20 +14041,20 @@
         <v>1611</v>
       </c>
       <c r="B999" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1000" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1001" t="s">
         <v>1614</v>
@@ -14075,36 +14081,36 @@
         <v>1619</v>
       </c>
       <c r="B1004" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1005" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1006" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1007" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1008" t="s">
         <v>1624</v>
@@ -14123,36 +14129,36 @@
         <v>1627</v>
       </c>
       <c r="B1010" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1011" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1012" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1013" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1014" t="s">
         <v>1632</v>
@@ -14171,12 +14177,12 @@
         <v>1635</v>
       </c>
       <c r="B1016" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1017" t="s">
         <v>1637</v>
@@ -14203,12 +14209,12 @@
         <v>1642</v>
       </c>
       <c r="B1020" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1021" t="s">
         <v>1644</v>
@@ -14219,20 +14225,20 @@
         <v>1645</v>
       </c>
       <c r="B1022" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1023" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1024" t="s">
         <v>1648</v>
@@ -14251,28 +14257,28 @@
         <v>1651</v>
       </c>
       <c r="B1026" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1027" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1028" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1029" t="s">
         <v>1655</v>
@@ -14283,12 +14289,12 @@
         <v>1656</v>
       </c>
       <c r="B1030" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1031" t="s">
         <v>1658</v>
@@ -14307,12 +14313,12 @@
         <v>1661</v>
       </c>
       <c r="B1033" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1034" t="s">
         <v>1663</v>
@@ -14339,12 +14345,12 @@
         <v>1668</v>
       </c>
       <c r="B1037" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1038" t="s">
         <v>1670</v>
@@ -14363,12 +14369,12 @@
         <v>1673</v>
       </c>
       <c r="B1040" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1041" t="s">
         <v>1675</v>
@@ -14387,12 +14393,12 @@
         <v>1678</v>
       </c>
       <c r="B1043" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1044" t="s">
         <v>1680</v>
@@ -14403,20 +14409,20 @@
         <v>1681</v>
       </c>
       <c r="B1045" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1046" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1047" t="s">
         <v>1684</v>
@@ -14475,20 +14481,20 @@
         <v>1697</v>
       </c>
       <c r="B1054" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1055" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1056" t="s">
         <v>1700</v>
@@ -14499,20 +14505,20 @@
         <v>1701</v>
       </c>
       <c r="B1057" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1058" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1059" t="s">
         <v>1704</v>
@@ -14531,12 +14537,12 @@
         <v>1707</v>
       </c>
       <c r="B1061" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1062" t="s">
         <v>1709</v>
@@ -14587,12 +14593,12 @@
         <v>1720</v>
       </c>
       <c r="B1068" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1069" t="s">
         <v>1722</v>
@@ -14611,20 +14617,20 @@
         <v>1725</v>
       </c>
       <c r="B1071" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1072" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1073" t="s">
         <v>1728</v>
@@ -14635,12 +14641,12 @@
         <v>1729</v>
       </c>
       <c r="B1074" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1075" t="s">
         <v>1731</v>
@@ -14659,12 +14665,12 @@
         <v>1734</v>
       </c>
       <c r="B1077" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1078" t="s">
         <v>1736</v>
@@ -14739,12 +14745,12 @@
         <v>1753</v>
       </c>
       <c r="B1087" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1088" t="s">
         <v>1755</v>
@@ -14787,12 +14793,12 @@
         <v>1764</v>
       </c>
       <c r="B1093" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1094" t="s">
         <v>1766</v>
@@ -14811,12 +14817,12 @@
         <v>1769</v>
       </c>
       <c r="B1096" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1097" t="s">
         <v>1771</v>
@@ -14827,20 +14833,20 @@
         <v>1772</v>
       </c>
       <c r="B1098" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1099" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1100" t="s">
         <v>1775</v>
@@ -14939,12 +14945,12 @@
         <v>1798</v>
       </c>
       <c r="B1112" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1113" t="s">
         <v>1800</v>
@@ -15051,44 +15057,44 @@
         <v>1825</v>
       </c>
       <c r="B1126" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1127" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1128" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1129" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1130" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1131" t="s">
         <v>1831</v>
@@ -15107,28 +15113,28 @@
         <v>1834</v>
       </c>
       <c r="B1133" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1134" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1135" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1136" t="s">
         <v>1838</v>
@@ -15147,12 +15153,12 @@
         <v>1841</v>
       </c>
       <c r="B1138" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1139" t="s">
         <v>1843</v>
@@ -15195,12 +15201,12 @@
         <v>1852</v>
       </c>
       <c r="B1144" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1145" t="s">
         <v>1854</v>
@@ -15211,12 +15217,12 @@
         <v>1855</v>
       </c>
       <c r="B1146" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1147" t="s">
         <v>1857</v>
@@ -15251,36 +15257,36 @@
         <v>1864</v>
       </c>
       <c r="B1151" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1152" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1153" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1154" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1155" t="s">
         <v>1869</v>
@@ -15307,20 +15313,20 @@
         <v>1874</v>
       </c>
       <c r="B1158" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1159" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1160" t="s">
         <v>1877</v>
@@ -15331,36 +15337,36 @@
         <v>1878</v>
       </c>
       <c r="B1161" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1162" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1163" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1164" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1165" t="s">
         <v>1883</v>
@@ -15379,12 +15385,12 @@
         <v>1886</v>
       </c>
       <c r="B1167" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1168" t="s">
         <v>1888</v>
@@ -15395,11 +15401,19 @@
         <v>1889</v>
       </c>
       <c r="B1169" t="s">
-        <v>1889</v>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1891</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1893">
   <si>
     <t>en</t>
   </si>
@@ -4553,6 +4553,9 @@
   </si>
   <si>
     <t>Șapte păcate capitale</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6039,7 +6042,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13537,20 +13540,20 @@
         <v>1512</v>
       </c>
       <c r="B936" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B937" t="s">
         <v>1514</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B938" t="s">
         <v>1516</v>
@@ -13577,20 +13580,20 @@
         <v>1519</v>
       </c>
       <c r="B941" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B942" t="s">
         <v>1521</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B943" t="s">
         <v>1523</v>
@@ -13641,36 +13644,36 @@
         <v>1529</v>
       </c>
       <c r="B949" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B950" t="s">
         <v>1531</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B951" t="s">
         <v>1533</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B952" t="s">
         <v>1535</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B953" t="s">
         <v>1537</v>
@@ -13689,52 +13692,52 @@
         <v>1539</v>
       </c>
       <c r="B955" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B956" t="s">
         <v>1541</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B957" t="s">
         <v>1543</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B958" t="s">
         <v>1545</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B959" t="s">
         <v>1547</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B960" t="s">
         <v>1549</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B961" t="s">
         <v>1551</v>
@@ -13761,60 +13764,60 @@
         <v>1554</v>
       </c>
       <c r="B964" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B965" t="s">
         <v>1556</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B966" t="s">
         <v>1558</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B967" t="s">
         <v>1560</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B968" t="s">
         <v>1562</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B969" t="s">
         <v>1564</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B970" t="s">
         <v>1566</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B971" t="s">
         <v>1568</v>
@@ -13825,36 +13828,36 @@
         <v>1569</v>
       </c>
       <c r="B972" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B973" t="s">
         <v>1571</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B974" t="s">
         <v>1573</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B975" t="s">
         <v>1575</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B976" t="s">
         <v>1577</v>
@@ -13873,20 +13876,20 @@
         <v>1579</v>
       </c>
       <c r="B978" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B979" t="s">
         <v>1581</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B980" t="s">
         <v>1583</v>
@@ -13921,12 +13924,12 @@
         <v>1587</v>
       </c>
       <c r="B984" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B985" t="s">
         <v>1589</v>
@@ -13945,28 +13948,28 @@
         <v>1591</v>
       </c>
       <c r="B987" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B988" t="s">
         <v>1593</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B989" t="s">
         <v>1595</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B990" t="s">
         <v>1597</v>
@@ -13977,20 +13980,20 @@
         <v>1598</v>
       </c>
       <c r="B991" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B992" t="s">
         <v>1600</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B993" t="s">
         <v>1602</v>
@@ -14017,36 +14020,36 @@
         <v>1605</v>
       </c>
       <c r="B996" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B997" t="s">
         <v>1607</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B998" t="s">
         <v>1609</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B999" t="s">
         <v>1611</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1000" t="s">
         <v>1613</v>
@@ -14065,28 +14068,28 @@
         <v>1615</v>
       </c>
       <c r="B1002" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1003" t="s">
         <v>1617</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1619</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1005" t="s">
         <v>1621</v>
@@ -14121,20 +14124,20 @@
         <v>1625</v>
       </c>
       <c r="B1009" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1627</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1011" t="s">
         <v>1629</v>
@@ -14169,20 +14172,20 @@
         <v>1633</v>
       </c>
       <c r="B1015" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1017" t="s">
         <v>1637</v>
@@ -14193,28 +14196,28 @@
         <v>1638</v>
       </c>
       <c r="B1018" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1640</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1642</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1021" t="s">
         <v>1644</v>
@@ -14225,12 +14228,12 @@
         <v>1645</v>
       </c>
       <c r="B1022" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1023" t="s">
         <v>1647</v>
@@ -14249,20 +14252,20 @@
         <v>1649</v>
       </c>
       <c r="B1025" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1026" t="s">
         <v>1651</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1027" t="s">
         <v>1653</v>
@@ -14289,12 +14292,12 @@
         <v>1656</v>
       </c>
       <c r="B1030" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1031" t="s">
         <v>1658</v>
@@ -14305,20 +14308,20 @@
         <v>1659</v>
       </c>
       <c r="B1032" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1661</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1034" t="s">
         <v>1663</v>
@@ -14329,28 +14332,28 @@
         <v>1664</v>
       </c>
       <c r="B1035" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1666</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1668</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B1038" t="s">
         <v>1670</v>
@@ -14361,20 +14364,20 @@
         <v>1671</v>
       </c>
       <c r="B1039" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B1041" t="s">
         <v>1675</v>
@@ -14385,20 +14388,20 @@
         <v>1676</v>
       </c>
       <c r="B1042" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1678</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1044" t="s">
         <v>1680</v>
@@ -14409,12 +14412,12 @@
         <v>1681</v>
       </c>
       <c r="B1045" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B1046" t="s">
         <v>1683</v>
@@ -14433,60 +14436,60 @@
         <v>1685</v>
       </c>
       <c r="B1048" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1687</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1689</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1691</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1055" t="s">
         <v>1699</v>
@@ -14505,12 +14508,12 @@
         <v>1701</v>
       </c>
       <c r="B1057" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1058" t="s">
         <v>1703</v>
@@ -14529,20 +14532,20 @@
         <v>1705</v>
       </c>
       <c r="B1060" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1707</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1062" t="s">
         <v>1709</v>
@@ -14553,52 +14556,52 @@
         <v>1710</v>
       </c>
       <c r="B1063" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1712</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1714</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1716</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1718</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1720</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1069" t="s">
         <v>1722</v>
@@ -14609,20 +14612,20 @@
         <v>1723</v>
       </c>
       <c r="B1070" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1071" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1072" t="s">
         <v>1727</v>
@@ -14641,12 +14644,12 @@
         <v>1729</v>
       </c>
       <c r="B1074" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B1075" t="s">
         <v>1731</v>
@@ -14657,20 +14660,20 @@
         <v>1732</v>
       </c>
       <c r="B1076" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1077" t="s">
         <v>1734</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1078" t="s">
         <v>1736</v>
@@ -14681,76 +14684,76 @@
         <v>1737</v>
       </c>
       <c r="B1079" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1080" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1741</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1743</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1083" t="s">
         <v>1745</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1088" t="s">
         <v>1755</v>
@@ -14761,44 +14764,44 @@
         <v>1756</v>
       </c>
       <c r="B1089" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1758</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1760</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1762</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1764</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B1094" t="s">
         <v>1766</v>
@@ -14809,20 +14812,20 @@
         <v>1767</v>
       </c>
       <c r="B1095" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1096" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1097" t="s">
         <v>1771</v>
@@ -14833,12 +14836,12 @@
         <v>1772</v>
       </c>
       <c r="B1098" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1099" t="s">
         <v>1774</v>
@@ -14857,100 +14860,100 @@
         <v>1776</v>
       </c>
       <c r="B1101" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1102" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1113" t="s">
         <v>1800</v>
@@ -14961,108 +14964,108 @@
         <v>1801</v>
       </c>
       <c r="B1114" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1805</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1127" t="s">
         <v>1827</v>
@@ -15105,20 +15108,20 @@
         <v>1832</v>
       </c>
       <c r="B1132" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1133" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1134" t="s">
         <v>1836</v>
@@ -15145,20 +15148,20 @@
         <v>1839</v>
       </c>
       <c r="B1137" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1138" t="s">
         <v>1841</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1139" t="s">
         <v>1843</v>
@@ -15169,44 +15172,44 @@
         <v>1844</v>
       </c>
       <c r="B1140" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1846</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1848</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1850</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1145" t="s">
         <v>1854</v>
@@ -15217,12 +15220,12 @@
         <v>1855</v>
       </c>
       <c r="B1146" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1147" t="s">
         <v>1857</v>
@@ -15233,36 +15236,36 @@
         <v>1858</v>
       </c>
       <c r="B1148" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1862</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1152" t="s">
         <v>1866</v>
@@ -15297,28 +15300,28 @@
         <v>1870</v>
       </c>
       <c r="B1156" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1157" t="s">
         <v>1872</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1158" t="s">
         <v>1874</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1159" t="s">
         <v>1876</v>
@@ -15337,12 +15340,12 @@
         <v>1878</v>
       </c>
       <c r="B1161" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1162" t="s">
         <v>1880</v>
@@ -15377,20 +15380,20 @@
         <v>1884</v>
       </c>
       <c r="B1166" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1167" t="s">
         <v>1886</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1168" t="s">
         <v>1888</v>
@@ -15401,19 +15404,27 @@
         <v>1889</v>
       </c>
       <c r="B1169" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1170" t="s">
         <v>1891</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1892</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1897">
   <si>
     <t>en</t>
   </si>
@@ -3608,6 +3608,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Munți de haos</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6048,7 +6054,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11994,36 +12000,36 @@
         <v>1199</v>
       </c>
       <c r="B742" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B743" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B744" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B745" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B746" t="s">
         <v>1204</v>
@@ -12114,36 +12120,36 @@
         <v>1225</v>
       </c>
       <c r="B757" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B758" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B759" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B760" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B761" t="s">
         <v>1230</v>
@@ -12186,12 +12192,12 @@
         <v>1239</v>
       </c>
       <c r="B766" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B767" t="s">
         <v>1241</v>
@@ -12226,12 +12232,12 @@
         <v>1248</v>
       </c>
       <c r="B771" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B772" t="s">
         <v>1250</v>
@@ -12290,36 +12296,36 @@
         <v>1263</v>
       </c>
       <c r="B779" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B780" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B781" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B782" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B783" t="s">
         <v>1268</v>
@@ -12338,12 +12344,12 @@
         <v>1271</v>
       </c>
       <c r="B785" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B786" t="s">
         <v>1273</v>
@@ -12354,20 +12360,20 @@
         <v>1274</v>
       </c>
       <c r="B787" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B788" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B789" t="s">
         <v>1277</v>
@@ -12378,36 +12384,36 @@
         <v>1278</v>
       </c>
       <c r="B790" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B791" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B792" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B793" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B794" t="s">
         <v>1283</v>
@@ -12418,20 +12424,20 @@
         <v>1284</v>
       </c>
       <c r="B795" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B796" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B797" t="s">
         <v>1287</v>
@@ -12490,28 +12496,28 @@
         <v>1300</v>
       </c>
       <c r="B804" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B805" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B806" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B807" t="s">
         <v>1304</v>
@@ -12586,12 +12592,12 @@
         <v>1321</v>
       </c>
       <c r="B816" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B817" t="s">
         <v>1323</v>
@@ -12618,12 +12624,12 @@
         <v>1328</v>
       </c>
       <c r="B820" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B821" t="s">
         <v>1330</v>
@@ -12634,12 +12640,12 @@
         <v>1331</v>
       </c>
       <c r="B822" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B823" t="s">
         <v>1333</v>
@@ -12650,28 +12656,28 @@
         <v>1334</v>
       </c>
       <c r="B824" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B825" t="s">
-        <v>746</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B826" t="s">
-        <v>1336</v>
+        <v>746</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B827" t="s">
         <v>1338</v>
@@ -12682,36 +12688,36 @@
         <v>1339</v>
       </c>
       <c r="B828" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B829" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B830" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B831" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B832" t="s">
         <v>1344</v>
@@ -12730,12 +12736,12 @@
         <v>1347</v>
       </c>
       <c r="B834" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B835" t="s">
         <v>1349</v>
@@ -12778,28 +12784,28 @@
         <v>1358</v>
       </c>
       <c r="B840" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B841" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B842" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B843" t="s">
         <v>1362</v>
@@ -12906,20 +12912,20 @@
         <v>1387</v>
       </c>
       <c r="B856" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B857" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B858" t="s">
         <v>1390</v>
@@ -12930,36 +12936,36 @@
         <v>1391</v>
       </c>
       <c r="B859" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B860" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B861" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B862" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B863" t="s">
         <v>1396</v>
@@ -12970,12 +12976,12 @@
         <v>1397</v>
       </c>
       <c r="B864" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B865" t="s">
         <v>1399</v>
@@ -12986,12 +12992,12 @@
         <v>1400</v>
       </c>
       <c r="B866" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B867" t="s">
         <v>1402</v>
@@ -13010,12 +13016,12 @@
         <v>1405</v>
       </c>
       <c r="B869" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B870" t="s">
         <v>1407</v>
@@ -13026,12 +13032,12 @@
         <v>1408</v>
       </c>
       <c r="B871" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B872" t="s">
         <v>1410</v>
@@ -13058,20 +13064,20 @@
         <v>1415</v>
       </c>
       <c r="B875" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B876" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B877" t="s">
         <v>1418</v>
@@ -13098,20 +13104,20 @@
         <v>1423</v>
       </c>
       <c r="B880" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B881" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B882" t="s">
         <v>1426</v>
@@ -13122,12 +13128,12 @@
         <v>1427</v>
       </c>
       <c r="B883" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B884" t="s">
         <v>1429</v>
@@ -13138,12 +13144,12 @@
         <v>1430</v>
       </c>
       <c r="B885" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B886" t="s">
         <v>1432</v>
@@ -13154,12 +13160,12 @@
         <v>1433</v>
       </c>
       <c r="B887" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B888" t="s">
         <v>1435</v>
@@ -13170,12 +13176,12 @@
         <v>1436</v>
       </c>
       <c r="B889" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B890" t="s">
         <v>1438</v>
@@ -13202,20 +13208,20 @@
         <v>1443</v>
       </c>
       <c r="B893" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B894" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B895" t="s">
         <v>1446</v>
@@ -13266,60 +13272,60 @@
         <v>1457</v>
       </c>
       <c r="B901" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B902" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B903" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B904" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B905" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B906" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B907" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B908" t="s">
         <v>1465</v>
@@ -13346,28 +13352,28 @@
         <v>1470</v>
       </c>
       <c r="B911" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B912" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B913" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B914" t="s">
         <v>1474</v>
@@ -13410,20 +13416,20 @@
         <v>1483</v>
       </c>
       <c r="B919" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B920" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B921" t="s">
         <v>1486</v>
@@ -13458,12 +13464,12 @@
         <v>1493</v>
       </c>
       <c r="B925" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B926" t="s">
         <v>1495</v>
@@ -13482,20 +13488,20 @@
         <v>1498</v>
       </c>
       <c r="B928" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B929" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B930" t="s">
         <v>1501</v>
@@ -13538,12 +13544,12 @@
         <v>1510</v>
       </c>
       <c r="B935" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B936" t="s">
         <v>1512</v>
@@ -13562,28 +13568,28 @@
         <v>1515</v>
       </c>
       <c r="B938" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B939" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B940" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B941" t="s">
         <v>1519</v>
@@ -13602,52 +13608,52 @@
         <v>1522</v>
       </c>
       <c r="B943" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B944" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B945" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B946" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B947" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B948" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B949" t="s">
         <v>1529</v>
@@ -13682,20 +13688,20 @@
         <v>1536</v>
       </c>
       <c r="B953" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B954" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B955" t="s">
         <v>1539</v>
@@ -13746,28 +13752,28 @@
         <v>1550</v>
       </c>
       <c r="B961" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B962" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B963" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B964" t="s">
         <v>1554</v>
@@ -13826,12 +13832,12 @@
         <v>1567</v>
       </c>
       <c r="B971" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B972" t="s">
         <v>1569</v>
@@ -13866,20 +13872,20 @@
         <v>1576</v>
       </c>
       <c r="B976" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B977" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B978" t="s">
         <v>1579</v>
@@ -13898,36 +13904,36 @@
         <v>1582</v>
       </c>
       <c r="B980" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B981" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B982" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B983" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B984" t="s">
         <v>1587</v>
@@ -13938,20 +13944,20 @@
         <v>1588</v>
       </c>
       <c r="B985" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B986" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B987" t="s">
         <v>1591</v>
@@ -13978,12 +13984,12 @@
         <v>1596</v>
       </c>
       <c r="B990" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B991" t="s">
         <v>1598</v>
@@ -14002,28 +14008,28 @@
         <v>1601</v>
       </c>
       <c r="B993" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B994" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B995" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B996" t="s">
         <v>1605</v>
@@ -14058,20 +14064,20 @@
         <v>1612</v>
       </c>
       <c r="B1000" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1001" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1002" t="s">
         <v>1615</v>
@@ -14098,36 +14104,36 @@
         <v>1620</v>
       </c>
       <c r="B1005" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1006" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1007" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1008" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1009" t="s">
         <v>1625</v>
@@ -14146,36 +14152,36 @@
         <v>1628</v>
       </c>
       <c r="B1011" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1012" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1013" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1014" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1015" t="s">
         <v>1633</v>
@@ -14194,12 +14200,12 @@
         <v>1636</v>
       </c>
       <c r="B1017" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1018" t="s">
         <v>1638</v>
@@ -14226,12 +14232,12 @@
         <v>1643</v>
       </c>
       <c r="B1021" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1022" t="s">
         <v>1645</v>
@@ -14242,20 +14248,20 @@
         <v>1646</v>
       </c>
       <c r="B1023" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1024" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1025" t="s">
         <v>1649</v>
@@ -14274,28 +14280,28 @@
         <v>1652</v>
       </c>
       <c r="B1027" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1028" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1029" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1030" t="s">
         <v>1656</v>
@@ -14306,12 +14312,12 @@
         <v>1657</v>
       </c>
       <c r="B1031" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1032" t="s">
         <v>1659</v>
@@ -14330,12 +14336,12 @@
         <v>1662</v>
       </c>
       <c r="B1034" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1035" t="s">
         <v>1664</v>
@@ -14362,12 +14368,12 @@
         <v>1669</v>
       </c>
       <c r="B1038" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1039" t="s">
         <v>1671</v>
@@ -14386,12 +14392,12 @@
         <v>1674</v>
       </c>
       <c r="B1041" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1042" t="s">
         <v>1676</v>
@@ -14418,12 +14424,12 @@
         <v>1681</v>
       </c>
       <c r="B1045" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1046" t="s">
         <v>1683</v>
@@ -14434,20 +14440,20 @@
         <v>1684</v>
       </c>
       <c r="B1047" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1048" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1049" t="s">
         <v>1687</v>
@@ -14506,20 +14512,20 @@
         <v>1700</v>
       </c>
       <c r="B1056" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1057" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1058" t="s">
         <v>1703</v>
@@ -14530,20 +14536,20 @@
         <v>1704</v>
       </c>
       <c r="B1059" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1060" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1061" t="s">
         <v>1707</v>
@@ -14562,12 +14568,12 @@
         <v>1710</v>
       </c>
       <c r="B1063" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1064" t="s">
         <v>1712</v>
@@ -14618,12 +14624,12 @@
         <v>1723</v>
       </c>
       <c r="B1070" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1071" t="s">
         <v>1725</v>
@@ -14642,20 +14648,20 @@
         <v>1728</v>
       </c>
       <c r="B1073" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1074" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1075" t="s">
         <v>1731</v>
@@ -14666,12 +14672,12 @@
         <v>1732</v>
       </c>
       <c r="B1076" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1077" t="s">
         <v>1734</v>
@@ -14690,12 +14696,12 @@
         <v>1737</v>
       </c>
       <c r="B1079" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1080" t="s">
         <v>1739</v>
@@ -14770,12 +14776,12 @@
         <v>1756</v>
       </c>
       <c r="B1089" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1090" t="s">
         <v>1758</v>
@@ -14818,12 +14824,12 @@
         <v>1767</v>
       </c>
       <c r="B1095" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1096" t="s">
         <v>1769</v>
@@ -14842,12 +14848,12 @@
         <v>1772</v>
       </c>
       <c r="B1098" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1099" t="s">
         <v>1774</v>
@@ -14858,20 +14864,20 @@
         <v>1775</v>
       </c>
       <c r="B1100" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1101" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1102" t="s">
         <v>1778</v>
@@ -14970,12 +14976,12 @@
         <v>1801</v>
       </c>
       <c r="B1114" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1115" t="s">
         <v>1803</v>
@@ -15082,44 +15088,44 @@
         <v>1828</v>
       </c>
       <c r="B1128" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1129" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1130" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1131" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1132" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1133" t="s">
         <v>1834</v>
@@ -15138,28 +15144,28 @@
         <v>1837</v>
       </c>
       <c r="B1135" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1136" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1137" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1138" t="s">
         <v>1841</v>
@@ -15178,12 +15184,12 @@
         <v>1844</v>
       </c>
       <c r="B1140" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1141" t="s">
         <v>1846</v>
@@ -15226,12 +15232,12 @@
         <v>1855</v>
       </c>
       <c r="B1146" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1147" t="s">
         <v>1857</v>
@@ -15242,12 +15248,12 @@
         <v>1858</v>
       </c>
       <c r="B1148" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1149" t="s">
         <v>1860</v>
@@ -15282,36 +15288,36 @@
         <v>1867</v>
       </c>
       <c r="B1153" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1154" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1155" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1156" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1157" t="s">
         <v>1872</v>
@@ -15338,20 +15344,20 @@
         <v>1877</v>
       </c>
       <c r="B1160" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1161" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1162" t="s">
         <v>1880</v>
@@ -15362,36 +15368,36 @@
         <v>1881</v>
       </c>
       <c r="B1163" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1164" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1165" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1166" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1167" t="s">
         <v>1886</v>
@@ -15410,12 +15416,12 @@
         <v>1889</v>
       </c>
       <c r="B1169" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1170" t="s">
         <v>1891</v>
@@ -15426,19 +15432,27 @@
         <v>1892</v>
       </c>
       <c r="B1171" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1172" t="s">
         <v>1894</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1896</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1899">
   <si>
     <t>en</t>
   </si>
@@ -2033,6 +2033,12 @@
   </si>
   <si>
     <t>Font (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Font (Gresie cizelată roșie)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6054,7 +6060,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9408,20 +9414,20 @@
         <v>676</v>
       </c>
       <c r="B418" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B419" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B420" t="s">
         <v>679</v>
@@ -9432,12 +9438,12 @@
         <v>680</v>
       </c>
       <c r="B421" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B422" t="s">
         <v>682</v>
@@ -9504,12 +9510,12 @@
         <v>697</v>
       </c>
       <c r="B430" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B431" t="s">
         <v>699</v>
@@ -9528,12 +9534,12 @@
         <v>702</v>
       </c>
       <c r="B433" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B434" t="s">
         <v>704</v>
@@ -9624,12 +9630,12 @@
         <v>725</v>
       </c>
       <c r="B445" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B446" t="s">
         <v>727</v>
@@ -9640,12 +9646,12 @@
         <v>728</v>
       </c>
       <c r="B447" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B448" t="s">
         <v>730</v>
@@ -9656,12 +9662,12 @@
         <v>731</v>
       </c>
       <c r="B449" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B450" t="s">
         <v>733</v>
@@ -9680,12 +9686,12 @@
         <v>736</v>
       </c>
       <c r="B452" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B453" t="s">
         <v>738</v>
@@ -9760,12 +9766,12 @@
         <v>755</v>
       </c>
       <c r="B462" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B463" t="s">
         <v>757</v>
@@ -9776,20 +9782,20 @@
         <v>758</v>
       </c>
       <c r="B464" t="s">
-        <v>510</v>
+        <v>759</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B465" t="s">
-        <v>759</v>
+        <v>510</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B466" t="s">
         <v>761</v>
@@ -9808,28 +9814,28 @@
         <v>764</v>
       </c>
       <c r="B468" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B469" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B470" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B471" t="s">
         <v>768</v>
@@ -9840,20 +9846,20 @@
         <v>769</v>
       </c>
       <c r="B472" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B473" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B474" t="s">
         <v>772</v>
@@ -9864,12 +9870,12 @@
         <v>773</v>
       </c>
       <c r="B475" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B476" t="s">
         <v>775</v>
@@ -9888,12 +9894,12 @@
         <v>778</v>
       </c>
       <c r="B478" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B479" t="s">
         <v>780</v>
@@ -9904,12 +9910,12 @@
         <v>781</v>
       </c>
       <c r="B480" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B481" t="s">
         <v>783</v>
@@ -9928,12 +9934,12 @@
         <v>786</v>
       </c>
       <c r="B483" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B484" t="s">
         <v>788</v>
@@ -9944,36 +9950,36 @@
         <v>789</v>
       </c>
       <c r="B485" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B486" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B487" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B488" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B489" t="s">
         <v>794</v>
@@ -10128,20 +10134,20 @@
         <v>831</v>
       </c>
       <c r="B508" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B509" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B510" t="s">
         <v>834</v>
@@ -10152,12 +10158,12 @@
         <v>835</v>
       </c>
       <c r="B511" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B512" t="s">
         <v>837</v>
@@ -10168,12 +10174,12 @@
         <v>838</v>
       </c>
       <c r="B513" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B514" t="s">
         <v>840</v>
@@ -10208,12 +10214,12 @@
         <v>847</v>
       </c>
       <c r="B518" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B519" t="s">
         <v>849</v>
@@ -10288,15 +10294,15 @@
         <v>866</v>
       </c>
       <c r="B528" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>868</v>
+      </c>
+      <c r="B529" t="s">
         <v>867</v>
-      </c>
-      <c r="B529" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10304,12 +10310,12 @@
         <v>869</v>
       </c>
       <c r="B530" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B531" t="s">
         <v>871</v>
@@ -10328,20 +10334,20 @@
         <v>874</v>
       </c>
       <c r="B533" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B534" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B535" t="s">
         <v>877</v>
@@ -10360,12 +10366,12 @@
         <v>880</v>
       </c>
       <c r="B537" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B538" t="s">
         <v>882</v>
@@ -10376,12 +10382,12 @@
         <v>883</v>
       </c>
       <c r="B539" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B540" t="s">
         <v>885</v>
@@ -10416,20 +10422,20 @@
         <v>892</v>
       </c>
       <c r="B544" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B545" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B546" t="s">
         <v>895</v>
@@ -10440,28 +10446,28 @@
         <v>896</v>
       </c>
       <c r="B547" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B548" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B549" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B550" t="s">
         <v>900</v>
@@ -10488,20 +10494,20 @@
         <v>905</v>
       </c>
       <c r="B553" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B554" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B555" t="s">
         <v>908</v>
@@ -10552,28 +10558,28 @@
         <v>919</v>
       </c>
       <c r="B561" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B562" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B563" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B564" t="s">
         <v>923</v>
@@ -10616,12 +10622,12 @@
         <v>932</v>
       </c>
       <c r="B569" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B570" t="s">
         <v>934</v>
@@ -10648,44 +10654,44 @@
         <v>939</v>
       </c>
       <c r="B573" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B574" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B575" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B576" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B577" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B578" t="s">
         <v>945</v>
@@ -10704,12 +10710,12 @@
         <v>948</v>
       </c>
       <c r="B580" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B581" t="s">
         <v>950</v>
@@ -10720,20 +10726,20 @@
         <v>951</v>
       </c>
       <c r="B582" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B583" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B584" t="s">
         <v>954</v>
@@ -10744,28 +10750,28 @@
         <v>955</v>
       </c>
       <c r="B585" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B586" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B587" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B588" t="s">
         <v>959</v>
@@ -10776,12 +10782,12 @@
         <v>960</v>
       </c>
       <c r="B589" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B590" t="s">
         <v>962</v>
@@ -10792,12 +10798,12 @@
         <v>963</v>
       </c>
       <c r="B591" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B592" t="s">
         <v>965</v>
@@ -10864,20 +10870,20 @@
         <v>980</v>
       </c>
       <c r="B600" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B601" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B602" t="s">
         <v>983</v>
@@ -10888,12 +10894,12 @@
         <v>984</v>
       </c>
       <c r="B603" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B604" t="s">
         <v>986</v>
@@ -10936,28 +10942,28 @@
         <v>995</v>
       </c>
       <c r="B609" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B610" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B611" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B612" t="s">
         <v>999</v>
@@ -10968,12 +10974,12 @@
         <v>1000</v>
       </c>
       <c r="B613" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B614" t="s">
         <v>1002</v>
@@ -11024,12 +11030,12 @@
         <v>1013</v>
       </c>
       <c r="B620" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B621" t="s">
         <v>1015</v>
@@ -11040,28 +11046,28 @@
         <v>1016</v>
       </c>
       <c r="B622" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B623" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B624" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B625" t="s">
         <v>1020</v>
@@ -11080,36 +11086,36 @@
         <v>1023</v>
       </c>
       <c r="B627" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B631" t="s">
         <v>1028</v>
@@ -11120,52 +11126,52 @@
         <v>1029</v>
       </c>
       <c r="B632" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B634" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B635" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B636" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B637" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B638" t="s">
         <v>1036</v>
@@ -11176,36 +11182,36 @@
         <v>1037</v>
       </c>
       <c r="B639" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B640" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B641" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B642" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B643" t="s">
         <v>1042</v>
@@ -11240,28 +11246,28 @@
         <v>1049</v>
       </c>
       <c r="B647" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B648" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B649" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B650" t="s">
         <v>1053</v>
@@ -11272,12 +11278,12 @@
         <v>1054</v>
       </c>
       <c r="B651" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B652" t="s">
         <v>1056</v>
@@ -11304,12 +11310,12 @@
         <v>1061</v>
       </c>
       <c r="B655" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B656" t="s">
         <v>1063</v>
@@ -11368,28 +11374,28 @@
         <v>1076</v>
       </c>
       <c r="B663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B666" t="s">
         <v>1080</v>
@@ -11400,12 +11406,12 @@
         <v>1081</v>
       </c>
       <c r="B667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B668" t="s">
         <v>1083</v>
@@ -11424,12 +11430,12 @@
         <v>1086</v>
       </c>
       <c r="B670" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B671" t="s">
         <v>1088</v>
@@ -11448,12 +11454,12 @@
         <v>1091</v>
       </c>
       <c r="B673" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B674" t="s">
         <v>1093</v>
@@ -11472,12 +11478,12 @@
         <v>1096</v>
       </c>
       <c r="B676" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B677" t="s">
         <v>1098</v>
@@ -11504,20 +11510,20 @@
         <v>1103</v>
       </c>
       <c r="B680" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B681" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B682" t="s">
         <v>1106</v>
@@ -11576,12 +11582,12 @@
         <v>1119</v>
       </c>
       <c r="B689" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B690" t="s">
         <v>1121</v>
@@ -11600,12 +11606,12 @@
         <v>1124</v>
       </c>
       <c r="B692" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B693" t="s">
         <v>1126</v>
@@ -11648,12 +11654,12 @@
         <v>1135</v>
       </c>
       <c r="B698" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B699" t="s">
         <v>1137</v>
@@ -11664,20 +11670,20 @@
         <v>1138</v>
       </c>
       <c r="B700" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B701" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B702" t="s">
         <v>1141</v>
@@ -11688,60 +11694,60 @@
         <v>1142</v>
       </c>
       <c r="B703" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B704" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B705" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B706" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B707" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B708" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B709" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B710" t="s">
         <v>1150</v>
@@ -11752,12 +11758,12 @@
         <v>1151</v>
       </c>
       <c r="B711" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B712" t="s">
         <v>1153</v>
@@ -11768,12 +11774,12 @@
         <v>1154</v>
       </c>
       <c r="B713" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B714" t="s">
         <v>1156</v>
@@ -11840,20 +11846,20 @@
         <v>1171</v>
       </c>
       <c r="B722" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B723" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B724" t="s">
         <v>1174</v>
@@ -11872,12 +11878,12 @@
         <v>1177</v>
       </c>
       <c r="B726" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B727" t="s">
         <v>1179</v>
@@ -11896,12 +11902,12 @@
         <v>1182</v>
       </c>
       <c r="B729" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B730" t="s">
         <v>1184</v>
@@ -11928,68 +11934,68 @@
         <v>1189</v>
       </c>
       <c r="B733" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B734" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B735" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B736" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B737" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B738" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B739" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B740" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B741" t="s">
         <v>1198</v>
@@ -12008,36 +12014,36 @@
         <v>1201</v>
       </c>
       <c r="B743" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B744" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B745" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B746" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B747" t="s">
         <v>1206</v>
@@ -12128,36 +12134,36 @@
         <v>1227</v>
       </c>
       <c r="B758" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B759" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B760" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B761" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B762" t="s">
         <v>1232</v>
@@ -12200,12 +12206,12 @@
         <v>1241</v>
       </c>
       <c r="B767" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B768" t="s">
         <v>1243</v>
@@ -12240,12 +12246,12 @@
         <v>1250</v>
       </c>
       <c r="B772" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B773" t="s">
         <v>1252</v>
@@ -12304,36 +12310,36 @@
         <v>1265</v>
       </c>
       <c r="B780" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B781" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B782" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B783" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B784" t="s">
         <v>1270</v>
@@ -12352,12 +12358,12 @@
         <v>1273</v>
       </c>
       <c r="B786" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B787" t="s">
         <v>1275</v>
@@ -12368,20 +12374,20 @@
         <v>1276</v>
       </c>
       <c r="B788" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B789" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B790" t="s">
         <v>1279</v>
@@ -12392,36 +12398,36 @@
         <v>1280</v>
       </c>
       <c r="B791" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B792" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B793" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B794" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B795" t="s">
         <v>1285</v>
@@ -12432,20 +12438,20 @@
         <v>1286</v>
       </c>
       <c r="B796" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B797" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B798" t="s">
         <v>1289</v>
@@ -12504,28 +12510,28 @@
         <v>1302</v>
       </c>
       <c r="B805" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B806" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B807" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B808" t="s">
         <v>1306</v>
@@ -12600,12 +12606,12 @@
         <v>1323</v>
       </c>
       <c r="B817" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B818" t="s">
         <v>1325</v>
@@ -12632,12 +12638,12 @@
         <v>1330</v>
       </c>
       <c r="B821" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B822" t="s">
         <v>1332</v>
@@ -12648,12 +12654,12 @@
         <v>1333</v>
       </c>
       <c r="B823" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B824" t="s">
         <v>1335</v>
@@ -12664,28 +12670,28 @@
         <v>1336</v>
       </c>
       <c r="B825" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B826" t="s">
-        <v>746</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B827" t="s">
-        <v>1338</v>
+        <v>748</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B828" t="s">
         <v>1340</v>
@@ -12696,36 +12702,36 @@
         <v>1341</v>
       </c>
       <c r="B829" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B830" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B831" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B832" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B833" t="s">
         <v>1346</v>
@@ -12744,12 +12750,12 @@
         <v>1349</v>
       </c>
       <c r="B835" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B836" t="s">
         <v>1351</v>
@@ -12792,28 +12798,28 @@
         <v>1360</v>
       </c>
       <c r="B841" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B842" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B843" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B844" t="s">
         <v>1364</v>
@@ -12920,20 +12926,20 @@
         <v>1389</v>
       </c>
       <c r="B857" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B858" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B859" t="s">
         <v>1392</v>
@@ -12944,36 +12950,36 @@
         <v>1393</v>
       </c>
       <c r="B860" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B861" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B862" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B863" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B864" t="s">
         <v>1398</v>
@@ -12984,12 +12990,12 @@
         <v>1399</v>
       </c>
       <c r="B865" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B866" t="s">
         <v>1401</v>
@@ -13000,12 +13006,12 @@
         <v>1402</v>
       </c>
       <c r="B867" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B868" t="s">
         <v>1404</v>
@@ -13024,12 +13030,12 @@
         <v>1407</v>
       </c>
       <c r="B870" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B871" t="s">
         <v>1409</v>
@@ -13040,12 +13046,12 @@
         <v>1410</v>
       </c>
       <c r="B872" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B873" t="s">
         <v>1412</v>
@@ -13072,20 +13078,20 @@
         <v>1417</v>
       </c>
       <c r="B876" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B877" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B878" t="s">
         <v>1420</v>
@@ -13112,20 +13118,20 @@
         <v>1425</v>
       </c>
       <c r="B881" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B882" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B883" t="s">
         <v>1428</v>
@@ -13136,12 +13142,12 @@
         <v>1429</v>
       </c>
       <c r="B884" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B885" t="s">
         <v>1431</v>
@@ -13152,12 +13158,12 @@
         <v>1432</v>
       </c>
       <c r="B886" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B887" t="s">
         <v>1434</v>
@@ -13168,12 +13174,12 @@
         <v>1435</v>
       </c>
       <c r="B888" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B889" t="s">
         <v>1437</v>
@@ -13184,12 +13190,12 @@
         <v>1438</v>
       </c>
       <c r="B890" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B891" t="s">
         <v>1440</v>
@@ -13216,20 +13222,20 @@
         <v>1445</v>
       </c>
       <c r="B894" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B895" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B896" t="s">
         <v>1448</v>
@@ -13280,60 +13286,60 @@
         <v>1459</v>
       </c>
       <c r="B902" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B903" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B904" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B905" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B906" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B907" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B908" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B909" t="s">
         <v>1467</v>
@@ -13360,28 +13366,28 @@
         <v>1472</v>
       </c>
       <c r="B912" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B913" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B914" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B915" t="s">
         <v>1476</v>
@@ -13424,20 +13430,20 @@
         <v>1485</v>
       </c>
       <c r="B920" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B921" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B922" t="s">
         <v>1488</v>
@@ -13472,12 +13478,12 @@
         <v>1495</v>
       </c>
       <c r="B926" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B927" t="s">
         <v>1497</v>
@@ -13496,20 +13502,20 @@
         <v>1500</v>
       </c>
       <c r="B929" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B930" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B931" t="s">
         <v>1503</v>
@@ -13552,12 +13558,12 @@
         <v>1512</v>
       </c>
       <c r="B936" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B937" t="s">
         <v>1514</v>
@@ -13576,28 +13582,28 @@
         <v>1517</v>
       </c>
       <c r="B939" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B940" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B941" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B942" t="s">
         <v>1521</v>
@@ -13616,52 +13622,52 @@
         <v>1524</v>
       </c>
       <c r="B944" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B945" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B946" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B947" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B948" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B949" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B950" t="s">
         <v>1531</v>
@@ -13696,20 +13702,20 @@
         <v>1538</v>
       </c>
       <c r="B954" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B955" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B956" t="s">
         <v>1541</v>
@@ -13760,28 +13766,28 @@
         <v>1552</v>
       </c>
       <c r="B962" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B963" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B964" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B965" t="s">
         <v>1556</v>
@@ -13840,12 +13846,12 @@
         <v>1569</v>
       </c>
       <c r="B972" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B973" t="s">
         <v>1571</v>
@@ -13880,20 +13886,20 @@
         <v>1578</v>
       </c>
       <c r="B977" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B978" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B979" t="s">
         <v>1581</v>
@@ -13912,36 +13918,36 @@
         <v>1584</v>
       </c>
       <c r="B981" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B982" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B983" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B984" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B985" t="s">
         <v>1589</v>
@@ -13952,20 +13958,20 @@
         <v>1590</v>
       </c>
       <c r="B986" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B987" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B988" t="s">
         <v>1593</v>
@@ -13992,12 +13998,12 @@
         <v>1598</v>
       </c>
       <c r="B991" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B992" t="s">
         <v>1600</v>
@@ -14016,28 +14022,28 @@
         <v>1603</v>
       </c>
       <c r="B994" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B995" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B996" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B997" t="s">
         <v>1607</v>
@@ -14072,20 +14078,20 @@
         <v>1614</v>
       </c>
       <c r="B1001" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1002" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1003" t="s">
         <v>1617</v>
@@ -14112,36 +14118,36 @@
         <v>1622</v>
       </c>
       <c r="B1006" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1007" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1008" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1009" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1010" t="s">
         <v>1627</v>
@@ -14160,36 +14166,36 @@
         <v>1630</v>
       </c>
       <c r="B1012" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1013" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1014" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1015" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1016" t="s">
         <v>1635</v>
@@ -14208,12 +14214,12 @@
         <v>1638</v>
       </c>
       <c r="B1018" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1019" t="s">
         <v>1640</v>
@@ -14240,12 +14246,12 @@
         <v>1645</v>
       </c>
       <c r="B1022" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1023" t="s">
         <v>1647</v>
@@ -14256,20 +14262,20 @@
         <v>1648</v>
       </c>
       <c r="B1024" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1025" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1026" t="s">
         <v>1651</v>
@@ -14288,28 +14294,28 @@
         <v>1654</v>
       </c>
       <c r="B1028" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1029" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1030" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1031" t="s">
         <v>1658</v>
@@ -14320,12 +14326,12 @@
         <v>1659</v>
       </c>
       <c r="B1032" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1033" t="s">
         <v>1661</v>
@@ -14344,12 +14350,12 @@
         <v>1664</v>
       </c>
       <c r="B1035" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1036" t="s">
         <v>1666</v>
@@ -14376,12 +14382,12 @@
         <v>1671</v>
       </c>
       <c r="B1039" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1040" t="s">
         <v>1673</v>
@@ -14400,12 +14406,12 @@
         <v>1676</v>
       </c>
       <c r="B1042" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1043" t="s">
         <v>1678</v>
@@ -14432,12 +14438,12 @@
         <v>1683</v>
       </c>
       <c r="B1046" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1047" t="s">
         <v>1685</v>
@@ -14448,20 +14454,20 @@
         <v>1686</v>
       </c>
       <c r="B1048" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1049" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1050" t="s">
         <v>1689</v>
@@ -14520,20 +14526,20 @@
         <v>1702</v>
       </c>
       <c r="B1057" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1058" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1059" t="s">
         <v>1705</v>
@@ -14544,20 +14550,20 @@
         <v>1706</v>
       </c>
       <c r="B1060" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1061" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1062" t="s">
         <v>1709</v>
@@ -14576,12 +14582,12 @@
         <v>1712</v>
       </c>
       <c r="B1064" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1065" t="s">
         <v>1714</v>
@@ -14632,12 +14638,12 @@
         <v>1725</v>
       </c>
       <c r="B1071" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1072" t="s">
         <v>1727</v>
@@ -14656,20 +14662,20 @@
         <v>1730</v>
       </c>
       <c r="B1074" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1075" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1076" t="s">
         <v>1733</v>
@@ -14680,12 +14686,12 @@
         <v>1734</v>
       </c>
       <c r="B1077" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1078" t="s">
         <v>1736</v>
@@ -14704,12 +14710,12 @@
         <v>1739</v>
       </c>
       <c r="B1080" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1081" t="s">
         <v>1741</v>
@@ -14784,12 +14790,12 @@
         <v>1758</v>
       </c>
       <c r="B1090" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1091" t="s">
         <v>1760</v>
@@ -14832,12 +14838,12 @@
         <v>1769</v>
       </c>
       <c r="B1096" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1097" t="s">
         <v>1771</v>
@@ -14856,12 +14862,12 @@
         <v>1774</v>
       </c>
       <c r="B1099" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1100" t="s">
         <v>1776</v>
@@ -14872,20 +14878,20 @@
         <v>1777</v>
       </c>
       <c r="B1101" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1102" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1103" t="s">
         <v>1780</v>
@@ -14984,12 +14990,12 @@
         <v>1803</v>
       </c>
       <c r="B1115" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1116" t="s">
         <v>1805</v>
@@ -15096,44 +15102,44 @@
         <v>1830</v>
       </c>
       <c r="B1129" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1130" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1131" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1132" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1133" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1134" t="s">
         <v>1836</v>
@@ -15152,28 +15158,28 @@
         <v>1839</v>
       </c>
       <c r="B1136" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1137" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1138" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1139" t="s">
         <v>1843</v>
@@ -15192,12 +15198,12 @@
         <v>1846</v>
       </c>
       <c r="B1141" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1142" t="s">
         <v>1848</v>
@@ -15240,12 +15246,12 @@
         <v>1857</v>
       </c>
       <c r="B1147" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1148" t="s">
         <v>1859</v>
@@ -15256,12 +15262,12 @@
         <v>1860</v>
       </c>
       <c r="B1149" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1150" t="s">
         <v>1862</v>
@@ -15296,36 +15302,36 @@
         <v>1869</v>
       </c>
       <c r="B1154" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1155" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1156" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1157" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1158" t="s">
         <v>1874</v>
@@ -15352,20 +15358,20 @@
         <v>1879</v>
       </c>
       <c r="B1161" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1162" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1163" t="s">
         <v>1882</v>
@@ -15376,36 +15382,36 @@
         <v>1883</v>
       </c>
       <c r="B1164" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1165" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1166" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1167" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1168" t="s">
         <v>1888</v>
@@ -15424,12 +15430,12 @@
         <v>1891</v>
       </c>
       <c r="B1170" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1171" t="s">
         <v>1893</v>
@@ -15440,19 +15446,27 @@
         <v>1894</v>
       </c>
       <c r="B1172" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1173" t="s">
         <v>1896</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1898</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1901">
   <si>
     <t>en</t>
   </si>
@@ -5345,6 +5345,12 @@
   </si>
   <si>
     <t>Pădurea Twilight</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Țara minunilor răsucite</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6060,7 +6066,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14870,12 +14876,12 @@
         <v>1776</v>
       </c>
       <c r="B1100" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1101" t="s">
         <v>1778</v>
@@ -14886,20 +14892,20 @@
         <v>1779</v>
       </c>
       <c r="B1102" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1103" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1104" t="s">
         <v>1782</v>
@@ -14998,12 +15004,12 @@
         <v>1805</v>
       </c>
       <c r="B1116" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1117" t="s">
         <v>1807</v>
@@ -15110,44 +15116,44 @@
         <v>1832</v>
       </c>
       <c r="B1130" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1131" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1132" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1133" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1134" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1135" t="s">
         <v>1838</v>
@@ -15166,28 +15172,28 @@
         <v>1841</v>
       </c>
       <c r="B1137" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1138" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1139" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1140" t="s">
         <v>1845</v>
@@ -15206,12 +15212,12 @@
         <v>1848</v>
       </c>
       <c r="B1142" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1143" t="s">
         <v>1850</v>
@@ -15254,12 +15260,12 @@
         <v>1859</v>
       </c>
       <c r="B1148" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1149" t="s">
         <v>1861</v>
@@ -15270,12 +15276,12 @@
         <v>1862</v>
       </c>
       <c r="B1150" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1151" t="s">
         <v>1864</v>
@@ -15310,36 +15316,36 @@
         <v>1871</v>
       </c>
       <c r="B1155" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1156" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1157" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1158" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1159" t="s">
         <v>1876</v>
@@ -15366,20 +15372,20 @@
         <v>1881</v>
       </c>
       <c r="B1162" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1163" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1164" t="s">
         <v>1884</v>
@@ -15390,36 +15396,36 @@
         <v>1885</v>
       </c>
       <c r="B1165" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1166" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1167" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1168" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1169" t="s">
         <v>1890</v>
@@ -15438,12 +15444,12 @@
         <v>1893</v>
       </c>
       <c r="B1171" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1172" t="s">
         <v>1895</v>
@@ -15454,19 +15460,27 @@
         <v>1896</v>
       </c>
       <c r="B1173" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1174" t="s">
         <v>1898</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1903">
   <si>
     <t>en</t>
   </si>
@@ -2879,6 +2879,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Etichetă Hypixel (mutații)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6066,7 +6072,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10748,12 +10754,12 @@
         <v>954</v>
       </c>
       <c r="B584" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B585" t="s">
         <v>956</v>
@@ -10764,28 +10770,28 @@
         <v>957</v>
       </c>
       <c r="B586" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B587" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B588" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B589" t="s">
         <v>961</v>
@@ -10796,12 +10802,12 @@
         <v>962</v>
       </c>
       <c r="B590" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B591" t="s">
         <v>964</v>
@@ -10812,12 +10818,12 @@
         <v>965</v>
       </c>
       <c r="B592" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B593" t="s">
         <v>967</v>
@@ -10884,20 +10890,20 @@
         <v>982</v>
       </c>
       <c r="B601" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B602" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B603" t="s">
         <v>985</v>
@@ -10908,12 +10914,12 @@
         <v>986</v>
       </c>
       <c r="B604" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B605" t="s">
         <v>988</v>
@@ -10956,28 +10962,28 @@
         <v>997</v>
       </c>
       <c r="B610" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B611" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B612" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B613" t="s">
         <v>1001</v>
@@ -10988,12 +10994,12 @@
         <v>1002</v>
       </c>
       <c r="B614" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B615" t="s">
         <v>1004</v>
@@ -11044,12 +11050,12 @@
         <v>1015</v>
       </c>
       <c r="B621" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B622" t="s">
         <v>1017</v>
@@ -11060,28 +11066,28 @@
         <v>1018</v>
       </c>
       <c r="B623" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B624" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B625" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B626" t="s">
         <v>1022</v>
@@ -11100,36 +11106,36 @@
         <v>1025</v>
       </c>
       <c r="B628" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B629" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B630" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B631" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B632" t="s">
         <v>1030</v>
@@ -11140,52 +11146,52 @@
         <v>1031</v>
       </c>
       <c r="B633" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B634" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B635" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B636" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B637" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B638" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B639" t="s">
         <v>1038</v>
@@ -11196,36 +11202,36 @@
         <v>1039</v>
       </c>
       <c r="B640" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B641" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B642" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B643" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B644" t="s">
         <v>1044</v>
@@ -11260,28 +11266,28 @@
         <v>1051</v>
       </c>
       <c r="B648" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B649" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B650" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B651" t="s">
         <v>1055</v>
@@ -11292,12 +11298,12 @@
         <v>1056</v>
       </c>
       <c r="B652" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B653" t="s">
         <v>1058</v>
@@ -11324,12 +11330,12 @@
         <v>1063</v>
       </c>
       <c r="B656" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B657" t="s">
         <v>1065</v>
@@ -11388,28 +11394,28 @@
         <v>1078</v>
       </c>
       <c r="B664" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B665" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B666" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B667" t="s">
         <v>1082</v>
@@ -11420,12 +11426,12 @@
         <v>1083</v>
       </c>
       <c r="B668" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B669" t="s">
         <v>1085</v>
@@ -11444,12 +11450,12 @@
         <v>1088</v>
       </c>
       <c r="B671" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B672" t="s">
         <v>1090</v>
@@ -11468,12 +11474,12 @@
         <v>1093</v>
       </c>
       <c r="B674" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B675" t="s">
         <v>1095</v>
@@ -11492,12 +11498,12 @@
         <v>1098</v>
       </c>
       <c r="B677" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B678" t="s">
         <v>1100</v>
@@ -11524,20 +11530,20 @@
         <v>1105</v>
       </c>
       <c r="B681" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B682" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B683" t="s">
         <v>1108</v>
@@ -11596,12 +11602,12 @@
         <v>1121</v>
       </c>
       <c r="B690" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B691" t="s">
         <v>1123</v>
@@ -11620,12 +11626,12 @@
         <v>1126</v>
       </c>
       <c r="B693" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B694" t="s">
         <v>1128</v>
@@ -11668,12 +11674,12 @@
         <v>1137</v>
       </c>
       <c r="B699" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B700" t="s">
         <v>1139</v>
@@ -11684,20 +11690,20 @@
         <v>1140</v>
       </c>
       <c r="B701" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B702" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B703" t="s">
         <v>1143</v>
@@ -11708,60 +11714,60 @@
         <v>1144</v>
       </c>
       <c r="B704" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B705" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B706" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B707" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B708" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B709" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B710" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B711" t="s">
         <v>1152</v>
@@ -11772,12 +11778,12 @@
         <v>1153</v>
       </c>
       <c r="B712" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B713" t="s">
         <v>1155</v>
@@ -11788,12 +11794,12 @@
         <v>1156</v>
       </c>
       <c r="B714" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B715" t="s">
         <v>1158</v>
@@ -11860,20 +11866,20 @@
         <v>1173</v>
       </c>
       <c r="B723" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B724" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B725" t="s">
         <v>1176</v>
@@ -11892,12 +11898,12 @@
         <v>1179</v>
       </c>
       <c r="B727" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B728" t="s">
         <v>1181</v>
@@ -11916,12 +11922,12 @@
         <v>1184</v>
       </c>
       <c r="B730" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B731" t="s">
         <v>1186</v>
@@ -11948,68 +11954,68 @@
         <v>1191</v>
       </c>
       <c r="B734" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B735" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B736" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B737" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B738" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B739" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B740" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B741" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B742" t="s">
         <v>1200</v>
@@ -12028,36 +12034,36 @@
         <v>1203</v>
       </c>
       <c r="B744" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B745" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B746" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B747" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B748" t="s">
         <v>1208</v>
@@ -12148,36 +12154,36 @@
         <v>1229</v>
       </c>
       <c r="B759" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B760" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B761" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B762" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B763" t="s">
         <v>1234</v>
@@ -12220,12 +12226,12 @@
         <v>1243</v>
       </c>
       <c r="B768" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B769" t="s">
         <v>1245</v>
@@ -12260,12 +12266,12 @@
         <v>1252</v>
       </c>
       <c r="B773" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B774" t="s">
         <v>1254</v>
@@ -12324,36 +12330,36 @@
         <v>1267</v>
       </c>
       <c r="B781" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B782" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B783" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B784" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B785" t="s">
         <v>1272</v>
@@ -12372,12 +12378,12 @@
         <v>1275</v>
       </c>
       <c r="B787" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B788" t="s">
         <v>1277</v>
@@ -12388,20 +12394,20 @@
         <v>1278</v>
       </c>
       <c r="B789" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B790" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B791" t="s">
         <v>1281</v>
@@ -12412,36 +12418,36 @@
         <v>1282</v>
       </c>
       <c r="B792" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B793" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B794" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B795" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B796" t="s">
         <v>1287</v>
@@ -12452,20 +12458,20 @@
         <v>1288</v>
       </c>
       <c r="B797" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B798" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B799" t="s">
         <v>1291</v>
@@ -12524,28 +12530,28 @@
         <v>1304</v>
       </c>
       <c r="B806" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B807" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B808" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B809" t="s">
         <v>1308</v>
@@ -12620,12 +12626,12 @@
         <v>1325</v>
       </c>
       <c r="B818" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B819" t="s">
         <v>1327</v>
@@ -12652,12 +12658,12 @@
         <v>1332</v>
       </c>
       <c r="B822" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B823" t="s">
         <v>1334</v>
@@ -12668,12 +12674,12 @@
         <v>1335</v>
       </c>
       <c r="B824" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B825" t="s">
         <v>1337</v>
@@ -12684,28 +12690,28 @@
         <v>1338</v>
       </c>
       <c r="B826" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B827" t="s">
-        <v>748</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B828" t="s">
-        <v>1340</v>
+        <v>748</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B829" t="s">
         <v>1342</v>
@@ -12716,36 +12722,36 @@
         <v>1343</v>
       </c>
       <c r="B830" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B831" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B832" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B833" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B834" t="s">
         <v>1348</v>
@@ -12764,12 +12770,12 @@
         <v>1351</v>
       </c>
       <c r="B836" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B837" t="s">
         <v>1353</v>
@@ -12812,28 +12818,28 @@
         <v>1362</v>
       </c>
       <c r="B842" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B843" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B844" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B845" t="s">
         <v>1366</v>
@@ -12940,20 +12946,20 @@
         <v>1391</v>
       </c>
       <c r="B858" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B859" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B860" t="s">
         <v>1394</v>
@@ -12964,36 +12970,36 @@
         <v>1395</v>
       </c>
       <c r="B861" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B862" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B863" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B864" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B865" t="s">
         <v>1400</v>
@@ -13004,12 +13010,12 @@
         <v>1401</v>
       </c>
       <c r="B866" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B867" t="s">
         <v>1403</v>
@@ -13020,12 +13026,12 @@
         <v>1404</v>
       </c>
       <c r="B868" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B869" t="s">
         <v>1406</v>
@@ -13044,12 +13050,12 @@
         <v>1409</v>
       </c>
       <c r="B871" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B872" t="s">
         <v>1411</v>
@@ -13060,12 +13066,12 @@
         <v>1412</v>
       </c>
       <c r="B873" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B874" t="s">
         <v>1414</v>
@@ -13092,20 +13098,20 @@
         <v>1419</v>
       </c>
       <c r="B877" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B878" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B879" t="s">
         <v>1422</v>
@@ -13132,20 +13138,20 @@
         <v>1427</v>
       </c>
       <c r="B882" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B883" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B884" t="s">
         <v>1430</v>
@@ -13156,12 +13162,12 @@
         <v>1431</v>
       </c>
       <c r="B885" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B886" t="s">
         <v>1433</v>
@@ -13172,12 +13178,12 @@
         <v>1434</v>
       </c>
       <c r="B887" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B888" t="s">
         <v>1436</v>
@@ -13188,12 +13194,12 @@
         <v>1437</v>
       </c>
       <c r="B889" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B890" t="s">
         <v>1439</v>
@@ -13204,12 +13210,12 @@
         <v>1440</v>
       </c>
       <c r="B891" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B892" t="s">
         <v>1442</v>
@@ -13236,20 +13242,20 @@
         <v>1447</v>
       </c>
       <c r="B895" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B896" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B897" t="s">
         <v>1450</v>
@@ -13300,60 +13306,60 @@
         <v>1461</v>
       </c>
       <c r="B903" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B904" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B905" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B906" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B907" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B908" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B909" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B910" t="s">
         <v>1469</v>
@@ -13380,28 +13386,28 @@
         <v>1474</v>
       </c>
       <c r="B913" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B914" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B915" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B916" t="s">
         <v>1478</v>
@@ -13444,20 +13450,20 @@
         <v>1487</v>
       </c>
       <c r="B921" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B922" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B923" t="s">
         <v>1490</v>
@@ -13492,12 +13498,12 @@
         <v>1497</v>
       </c>
       <c r="B927" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B928" t="s">
         <v>1499</v>
@@ -13516,20 +13522,20 @@
         <v>1502</v>
       </c>
       <c r="B930" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B931" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B932" t="s">
         <v>1505</v>
@@ -13572,12 +13578,12 @@
         <v>1514</v>
       </c>
       <c r="B937" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B938" t="s">
         <v>1516</v>
@@ -13596,28 +13602,28 @@
         <v>1519</v>
       </c>
       <c r="B940" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B941" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B942" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B943" t="s">
         <v>1523</v>
@@ -13636,52 +13642,52 @@
         <v>1526</v>
       </c>
       <c r="B945" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B946" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B947" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B948" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B949" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B950" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B951" t="s">
         <v>1533</v>
@@ -13716,20 +13722,20 @@
         <v>1540</v>
       </c>
       <c r="B955" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B956" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B957" t="s">
         <v>1543</v>
@@ -13780,28 +13786,28 @@
         <v>1554</v>
       </c>
       <c r="B963" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B964" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B965" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B966" t="s">
         <v>1558</v>
@@ -13860,12 +13866,12 @@
         <v>1571</v>
       </c>
       <c r="B973" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B974" t="s">
         <v>1573</v>
@@ -13900,20 +13906,20 @@
         <v>1580</v>
       </c>
       <c r="B978" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B979" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B980" t="s">
         <v>1583</v>
@@ -13932,36 +13938,36 @@
         <v>1586</v>
       </c>
       <c r="B982" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B983" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B984" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B985" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B986" t="s">
         <v>1591</v>
@@ -13972,20 +13978,20 @@
         <v>1592</v>
       </c>
       <c r="B987" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B988" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B989" t="s">
         <v>1595</v>
@@ -14012,12 +14018,12 @@
         <v>1600</v>
       </c>
       <c r="B992" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B993" t="s">
         <v>1602</v>
@@ -14036,28 +14042,28 @@
         <v>1605</v>
       </c>
       <c r="B995" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B996" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B997" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B998" t="s">
         <v>1609</v>
@@ -14092,20 +14098,20 @@
         <v>1616</v>
       </c>
       <c r="B1002" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1003" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1004" t="s">
         <v>1619</v>
@@ -14132,36 +14138,36 @@
         <v>1624</v>
       </c>
       <c r="B1007" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1008" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1009" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1010" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1011" t="s">
         <v>1629</v>
@@ -14180,36 +14186,36 @@
         <v>1632</v>
       </c>
       <c r="B1013" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1014" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1015" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1016" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1017" t="s">
         <v>1637</v>
@@ -14228,12 +14234,12 @@
         <v>1640</v>
       </c>
       <c r="B1019" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1020" t="s">
         <v>1642</v>
@@ -14260,12 +14266,12 @@
         <v>1647</v>
       </c>
       <c r="B1023" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1024" t="s">
         <v>1649</v>
@@ -14276,20 +14282,20 @@
         <v>1650</v>
       </c>
       <c r="B1025" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1026" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1027" t="s">
         <v>1653</v>
@@ -14308,28 +14314,28 @@
         <v>1656</v>
       </c>
       <c r="B1029" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1030" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1031" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1032" t="s">
         <v>1660</v>
@@ -14340,12 +14346,12 @@
         <v>1661</v>
       </c>
       <c r="B1033" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1034" t="s">
         <v>1663</v>
@@ -14364,12 +14370,12 @@
         <v>1666</v>
       </c>
       <c r="B1036" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1037" t="s">
         <v>1668</v>
@@ -14396,12 +14402,12 @@
         <v>1673</v>
       </c>
       <c r="B1040" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1041" t="s">
         <v>1675</v>
@@ -14420,12 +14426,12 @@
         <v>1678</v>
       </c>
       <c r="B1043" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1044" t="s">
         <v>1680</v>
@@ -14452,12 +14458,12 @@
         <v>1685</v>
       </c>
       <c r="B1047" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1048" t="s">
         <v>1687</v>
@@ -14468,20 +14474,20 @@
         <v>1688</v>
       </c>
       <c r="B1049" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1050" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1051" t="s">
         <v>1691</v>
@@ -14540,20 +14546,20 @@
         <v>1704</v>
       </c>
       <c r="B1058" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1059" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1060" t="s">
         <v>1707</v>
@@ -14564,20 +14570,20 @@
         <v>1708</v>
       </c>
       <c r="B1061" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1062" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1063" t="s">
         <v>1711</v>
@@ -14596,12 +14602,12 @@
         <v>1714</v>
       </c>
       <c r="B1065" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1066" t="s">
         <v>1716</v>
@@ -14652,12 +14658,12 @@
         <v>1727</v>
       </c>
       <c r="B1072" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1073" t="s">
         <v>1729</v>
@@ -14676,20 +14682,20 @@
         <v>1732</v>
       </c>
       <c r="B1075" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1076" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1077" t="s">
         <v>1735</v>
@@ -14700,12 +14706,12 @@
         <v>1736</v>
       </c>
       <c r="B1078" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1079" t="s">
         <v>1738</v>
@@ -14724,12 +14730,12 @@
         <v>1741</v>
       </c>
       <c r="B1081" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1082" t="s">
         <v>1743</v>
@@ -14804,12 +14810,12 @@
         <v>1760</v>
       </c>
       <c r="B1091" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1092" t="s">
         <v>1762</v>
@@ -14852,12 +14858,12 @@
         <v>1771</v>
       </c>
       <c r="B1097" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1098" t="s">
         <v>1773</v>
@@ -14884,12 +14890,12 @@
         <v>1778</v>
       </c>
       <c r="B1101" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1102" t="s">
         <v>1780</v>
@@ -14900,20 +14906,20 @@
         <v>1781</v>
       </c>
       <c r="B1103" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1104" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1105" t="s">
         <v>1784</v>
@@ -15012,12 +15018,12 @@
         <v>1807</v>
       </c>
       <c r="B1117" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1118" t="s">
         <v>1809</v>
@@ -15124,44 +15130,44 @@
         <v>1834</v>
       </c>
       <c r="B1131" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1132" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1133" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1134" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1135" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1136" t="s">
         <v>1840</v>
@@ -15180,28 +15186,28 @@
         <v>1843</v>
       </c>
       <c r="B1138" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1139" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1140" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1141" t="s">
         <v>1847</v>
@@ -15220,12 +15226,12 @@
         <v>1850</v>
       </c>
       <c r="B1143" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1144" t="s">
         <v>1852</v>
@@ -15268,12 +15274,12 @@
         <v>1861</v>
       </c>
       <c r="B1149" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1150" t="s">
         <v>1863</v>
@@ -15284,12 +15290,12 @@
         <v>1864</v>
       </c>
       <c r="B1151" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1152" t="s">
         <v>1866</v>
@@ -15324,36 +15330,36 @@
         <v>1873</v>
       </c>
       <c r="B1156" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1157" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1158" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1159" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1160" t="s">
         <v>1878</v>
@@ -15380,20 +15386,20 @@
         <v>1883</v>
       </c>
       <c r="B1163" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1164" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1165" t="s">
         <v>1886</v>
@@ -15404,36 +15410,36 @@
         <v>1887</v>
       </c>
       <c r="B1166" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1167" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1168" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1169" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1170" t="s">
         <v>1892</v>
@@ -15452,12 +15458,12 @@
         <v>1895</v>
       </c>
       <c r="B1172" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1173" t="s">
         <v>1897</v>
@@ -15468,19 +15474,27 @@
         <v>1898</v>
       </c>
       <c r="B1174" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1175" t="s">
         <v>1900</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1902</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/ro/headTags.xlsx
+++ b/lang/ro/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1905">
   <si>
     <t>en</t>
   </si>
@@ -2881,2845 +2881,2851 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutații)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Animale de companie)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismane)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Țara strălucirii)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Epoca de gheață</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Cățărător pe gheață</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Înghețată</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Icoane (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icoane (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Icoane (Altele)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Icoane (fundal alb)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identitate V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Incredibili</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Parcul Indigo</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Leziuni</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Bloc strat interior</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Inscripționare</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Insectă</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Invincibil</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Acesta</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak și Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japonia</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Borcan</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Bijuterii</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>Aventura bizare a lui JoJo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Călătoria</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Liga Dreptății</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Paradisul Kaiju</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Serviciul de livrare al lui Kiki</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Bucătărie</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Umbra lămpii</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Peisaj</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lanternă</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Castelul din cer</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon legendar</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Liga letală</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteca din Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Viața este ciudată</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Compania Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Regele Leu</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Planeta mică și mare</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Mica Sirenă</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Micile coșmaruri</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Micul magazin al ororilor</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Mica vrăjitoare Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Stăpânul Inelelor (Lord of the Rings)</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Creatură îndrăgostită (Lovestruck Creature)</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Lovestruck Persoană</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Partea mașinii</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Tatăl nebun</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Fabricat în abis</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Nebunia de luptă</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Machiaj</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Eroi de inimă pură</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria și floarea vrăjitoarei</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascotă</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Mască</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Mască (completă)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Mască (funcțională)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Mască (sănătate)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mască (mob Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Stăpânii Universului</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Simbol matematic</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Masa</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Medievală</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Taverna Medievală</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Cască medievală de război</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega evoluție</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Actori</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexic</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Echipamente militare</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Ediția Minecraft Bedrock</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Temnițe Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Pământ</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Ediția pentru educație Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Legendele Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Filmul Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Modul poveste Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculos: Povești de Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Jurnal de viitor)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Domnișoara Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Pachetul de resurse Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casca Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Jaful banilor</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Munți de haos</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Spălare pe gură</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Drone criminale</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Ciupercă</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Ciupercă (Biom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mushroom (pălărie)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Muzică</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Mustață</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Prietenul meu cerb Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Eroul meu Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Micul meu ponei</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Vecinul meu Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Monștrii mei cântăreți</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (inspirat)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilie)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Creatură neutră</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Persoană neutră</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Ajunul Anului Nou</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Noapte în pădure</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Coșmar înainte de Crăciun</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Țestoasele Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Fără joc, fără viață</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Petrecerea din casa lui Noel</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitologia nordică</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (ediția pentru educație)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Fallout nuclear</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Tronul nuclear</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Număr</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Piuliță</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Șapcă de ofițer</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy și gândacii</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Vechi</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>O bucată</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Obiecte cu sursă deschisă</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Minereu</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organe și părți ale corpului</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Alte articole de acoperit capul</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Alte iluminări</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Altă creatură mistică</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Bloc strat exterior</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Stăpân</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Suzeta</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Față pictată</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Grădina palidă (inspirat)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Urs panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Labirintul Panselor</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Documente, vă rog</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa Rapperul</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Partidul</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Produse de patiserie și dulciuri</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Ziua de plată</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Alune de pădure (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pinguin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tabelul periodic al elementelor</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Echipament pentru animale de companie</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Porc</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pantera roz</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky și creierul</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Pirații din Caraibe</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Turn de pizza</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Plante vs. Zombies</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Luptele lui Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Generația Pokemon 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Articole Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Antrenor Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Urs polar</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Poliția</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Echipa Pop Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Poștașul Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Fetițele Powerpuff</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Prezent</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Mândrie</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Prințesa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Dovleac</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Dovleac (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Semn de punctuație</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Iepure</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Căi ferate</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Lumea ploii</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Creatori</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Tărâmul zeului nebun</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Scufița Roșie</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Formă regională Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Spectacol regulat</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religie</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Reptilă</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Raiul ritmului</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Panglică</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick și Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risc de ploaie</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rivalul lui Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Râul</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Rozătoare</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entitate rotită</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Coiful regal</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: O mare aventură</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Creatură tristă</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Persoană tristă</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Altele)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga lui Tanya cea rea</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Cască de samurai</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Satisfăcătoare</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Ferăstrău</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Eșarfă</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Breșă de izolare SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Țipătul</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serafimul sfârșitului (Seraph of the End)</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Experimente în serie Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Strada Sesame</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Șapte păcate capitale</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Umbrele lui Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Oaie</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon strălucitor</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Transport maritim</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Schelet</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilie)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Creatură sceptică</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Persoană sceptică</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Frumoasa adormită</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Creatura adormită</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Persoană care doarme</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Feliat</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Nămol</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vanilie)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Zeii Smite</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Fumat</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Ștrumfi</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Lupta cu zăpada</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Sculptură de zăpadă</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Albă ca Zăpada și cei șapte pitici</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Cântece de război</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Cavaler de suflet</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Parcul de Sud</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Călătorii spațiale</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Ou de reproducere</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Păianjen</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Păianjen (vanilie)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Conacul de spaimă Spooky's Jump</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Răspândiri</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Primăvara la viață</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Spion x Familie</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Squid Joc</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Ziua Sfântului Patrick</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Steaua împotriva forțelor răului</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Războiul Stelelor</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Cască Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars Casca Trooper</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Valea Stardew</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon starter</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Papetărie</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Piatră</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Depozitare (altele)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vara</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Ochelari de soare</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Supranatural</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Creatură surprinsă</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Persoană surprinsă</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Mlaștină</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Încâlcit</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Cârtiță</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (Calamitate)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Ziua Recunoștinței</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Momentul în care m-am reîncarnat într-un slime</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Aventurile lui Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Uimitorul Circ Digital</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Uimitoarea lume a lui Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Băieții</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Pisica se întoarce</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Epoca de cupru</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Noul Groove al Împăratului</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Vedetele ansamblului englez</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finala</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Musca</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Grădina se trezește</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Bunul dinozaur</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Marele detectiv șoarece</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Aventurile sumbre ale lui Billy și Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Cocoșatul de la Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Uriașul de fier</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Legenda lui Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Casa Bufniței</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Prințesa și broscoiul (The Princess and the Frog)</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Drumul spre El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Masacrul din Texas</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Cei trei cavaleri</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Dosarele Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Spectacolul lui Woody Woodpecker</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Prieteni</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Acele nopți la Rachel's</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Construcția Tinker</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom și Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Pionierii de mâine</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Gap dinte</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Insula dramei totale</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Proiectul Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Jucărie</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Povestea jucăriilor</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Trafic</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Semafor</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Semn de circulație</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Trasee și povești</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformatoare</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Cap transparent</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Coș de gunoi</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Comoară</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planeta comorilor</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Actualizarea încercărilor dificile</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Țestoasă</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Pădurea Twilight</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Țara minunilor răsucite</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Când plâng</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale galben</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Simbol universal</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Sus</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Viața sălbatică urbană</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V pentru Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Îndrăgostiților</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Valoros</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilie (eliminată)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Bloc de vanilie</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Alimente de vanilie</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Cască de vanilie</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Articol vanilie</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Vânători de seifuri</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Legume</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Vehicul</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingi</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Sătean</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Sătean (deșert)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Sătean (junglă)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Sătean (Câmpiile)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Sătean (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Sătean (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Sătean (Mlaștină)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Sătean (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtual</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace și Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Războiul lumilor (War of the Worlds)</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Pisici războinice</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Noi Bear Bears</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Vremea</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Bine ați venit acasă</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Cine este acesta?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Actualizare sălbatică</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Aripi de foc</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Iarna</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Minunata lume a minunilor</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Lemn</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Lână</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Cască de protecție la locul de muncă</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Cronicile Xenoblade</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulator Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Submarinul galben</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Tânăr</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Aripa zero</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Semn zodiacal</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilie)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Etichetă Hypixel (mutații)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Animale de companie)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismane)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Țara strălucirii)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Epoca de gheață</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Cățărător pe gheață</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Înghețată</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Icoane (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icoane (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Icoane (Altele)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Icoane (fundal alb)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identitate V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Incredibili</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Parcul Indigo</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Leziuni</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Bloc strat interior</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Inscripționare</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Insectă</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Invincibil</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Acesta</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak și Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japonia</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Borcan</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Bijuterii</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>Aventura bizare a lui JoJo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Călătoria</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Liga Dreptății</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Paradisul Kaiju</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Serviciul de livrare al lui Kiki</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Bucătărie</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Umbra lămpii</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Peisaj</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lanternă</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Castelul din cer</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon legendar</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Liga letală</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteca din Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Viața este ciudată</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Compania Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Regele Leu</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Planeta mică și mare</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Mica Sirenă</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Micile coșmaruri</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Micul magazin al ororilor</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Mica vrăjitoare Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Stăpânul Inelelor (Lord of the Rings)</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Creatură îndrăgostită (Lovestruck Creature)</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Lovestruck Persoană</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Partea mașinii</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Tatăl nebun</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Fabricat în abis</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Nebunia de luptă</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Machiaj</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Masculin</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Eroi de inimă pură</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria și floarea vrăjitoarei</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascotă</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Mască</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Mască (completă)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Mască (funcțională)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Mască (sănătate)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mască (mob Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Stăpânii Universului</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Simbol matematic</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Masa</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Carne</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Medievală</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Taverna Medievală</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Cască medievală de război</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega evoluție</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Actori</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mexic</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Echipamente militare</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Ediția Minecraft Bedrock</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Temnițe Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Pământ</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Ediția pentru educație Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Legendele Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Filmul Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Modul poveste Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculos: Povești de Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Jurnal de viitor)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Domnișoara Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Pachetul de resurse Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casca Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Bani</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Jaful banilor</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Munți de haos</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Spălare pe gură</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Drone criminale</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Ciupercă</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Ciupercă (Biom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mushroom (pălărie)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Muzică</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Mustață</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Prietenul meu cerb Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Eroul meu Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Micul meu ponei</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Vecinul meu Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Monștrii mei cântăreți</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (inspirat)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilie)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Creatură neutră</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Persoană neutră</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Ajunul Anului Nou</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Noapte în pădure</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Coșmar înainte de Crăciun</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Țestoasele Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Fără joc, fără viață</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Petrecerea din casa lui Noel</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitologia nordică</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (ediția pentru educație)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Fallout nuclear</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Tronul nuclear</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Număr</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Piuliță</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Șapcă de ofițer</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy și gândacii</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Vechi</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>O bucată</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Obiecte cu sursă deschisă</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Minereu</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organe și părți ale corpului</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Alte articole de acoperit capul</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Alte iluminări</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Altă creatură mistică</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Bloc strat exterior</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Stăpân</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Suzeta</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Față pictată</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Grădina palidă (inspirat)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Urs panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Labirintul Panselor</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Documente, vă rog</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa Rapperul</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Partidul</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Produse de patiserie și dulciuri</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Ziua de plată</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Alune de pădure (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pinguin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tabelul periodic al elementelor</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Echipament pentru animale de companie</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Porc</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pantera roz</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky și creierul</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Pirații din Caraibe</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Turn de pizza</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Plante vs. Zombies</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Luptele lui Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Generația Pokemon 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Articole Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Antrenor Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Urs polar</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Poliția</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Echipa Pop Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Poștașul Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Fetițele Powerpuff</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Prezent</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Mândrie</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Prințesa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Dovleac</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Dovleac (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Semn de punctuație</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Iepure</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Căi ferate</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Lumea ploii</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Creatori</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Tărâmul zeului nebun</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Scufița Roșie</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Formă regională Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Spectacol regulat</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religie</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Reptilă</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Raiul ritmului</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Panglică</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick și Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risc de ploaie</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rivalul lui Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Râul</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Rozătoare</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entitate rotită</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Coiful regal</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: O mare aventură</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Creatură tristă</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Persoană tristă</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Altele)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga lui Tanya cea rea</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Cască de samurai</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Satisfăcătoare</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Ferăstrău</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Eșarfă</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Breșă de izolare SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Țipătul</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Navigator</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serafimul sfârșitului (Seraph of the End)</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Experimente în serie Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Strada Sesame</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Șapte păcate capitale</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Umbrele lui Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Oaie</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon strălucitor</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Transport maritim</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Schelet</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilie)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Creatură sceptică</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Persoană sceptică</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Frumoasa adormită</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Creatura adormită</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Persoană care doarme</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Feliat</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Nămol</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vanilie)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Zeii Smite</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Fumat</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Ștrumfi</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Lupta cu zăpada</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Sculptură de zăpadă</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Albă ca Zăpada și cei șapte pitici</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Cântece de război</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Cavaler de suflet</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Parcul de Sud</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Călătorii spațiale</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Ou de reproducere</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Păianjen</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Păianjen (vanilie)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Conacul de spaimă Spooky's Jump</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Răspândiri</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Primăvara la viață</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Spion x Familie</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Squid Joc</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Ziua Sfântului Patrick</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Steaua împotriva forțelor răului</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Războiul Stelelor</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Cască Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars Casca Trooper</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Valea Stardew</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon starter</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Papetărie</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Piatră</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Depozitare (altele)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Vara</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Ochelari de soare</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Supranatural</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Creatură surprinsă</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Persoană surprinsă</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Mlaștină</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Încâlcit</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Cârtiță</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (Calamitate)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Ziua Recunoștinței</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Momentul în care m-am reîncarnat într-un slime</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Aventurile lui Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Uimitorul Circ Digital</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Uimitoarea lume a lui Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Băieții</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Pisica se întoarce</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Epoca de cupru</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Noul Groove al Împăratului</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Vedetele ansamblului englez</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finala</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Musca</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Grădina se trezește</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Bunul dinozaur</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Marele detectiv șoarece</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Aventurile sumbre ale lui Billy și Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Cocoșatul de la Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Uriașul de fier</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Legenda lui Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Casa Bufniței</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Prințesa și broscoiul (The Princess and the Frog)</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Drumul spre El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Masacrul din Texas</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Cei trei cavaleri</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Dosarele Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Spectacolul lui Woody Woodpecker</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Prieteni</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Acele nopți la Rachel's</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Construcția Tinker</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom și Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Pionierii de mâine</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Gap dinte</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Insula dramei totale</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Proiectul Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Jucărie</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Povestea jucăriilor</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Trafic</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Semafor</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Semn de circulație</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Trasee și povești</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformatoare</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Cap transparent</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Coș de gunoi</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Comoară</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planeta comorilor</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Actualizarea încercărilor dificile</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Țestoasă</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Pădurea Twilight</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Țara minunilor răsucite</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Când plâng</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale galben</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Simbol universal</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Sus</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Viața sălbatică urbană</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V pentru Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Îndrăgostiților</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Valoros</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilie (eliminată)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Bloc de vanilie</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Alimente de vanilie</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Cască de vanilie</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Articol vanilie</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Vânători de seifuri</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Legume</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Vehicul</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingi</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Sătean</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Sătean (deșert)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Sătean (junglă)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Sătean (Câmpiile)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Sătean (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Sătean (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Sătean (Mlaștină)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Sătean (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtual</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace și Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Războiul lumilor (War of the Worlds)</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Pisici războinice</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Noi Bear Bears</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Vremea</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Bine ați venit acasă</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Cine este acesta?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Actualizare sălbatică</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Aripi de foc</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Iarna</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Minunata lume a minunilor</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Lemn</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Lână</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Cască de protecție la locul de muncă</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Cronicile Xenoblade</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulator Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Submarinul galben</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Tânăr</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Aripa zero</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Semn zodiacal</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilie)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6072,7 +6078,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15493,8 +15499,16 @@
         <v>1902</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1904</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
